--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Desktop\eps-1.4.2-us-2019\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="13620" tabRatio="670" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="13620" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="464">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -889,9 +889,6 @@
   </si>
   <si>
     <t>Table HC2.1</t>
-  </si>
-  <si>
-    <t>of generation in this variable are additional.</t>
   </si>
   <si>
     <t xml:space="preserve">   Note:  Totals may not equal sum of components due to independent rounding.</t>
@@ -1589,6 +1586,27 @@
   </si>
   <si>
     <t xml:space="preserve">   Source:  U.S. Energy Information Administration, AEO2019 National Energy Modeling System run ref2019.d111618a.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MW*hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of generation in this variable are additional. Electricity Output is reported in MWh and </t>
+  </si>
+  <si>
+    <t>Capacity is reported in MW</t>
   </si>
 </sst>
 </file>
@@ -2320,26 +2338,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>282</v>
       </c>
@@ -2347,93 +2365,95 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <f>'RECS HC2.1'!B24/SUM('RECS HC2.1'!B24,'RECS HC2.1'!B27)</f>
         <v>0.80118443316412857</v>
@@ -2442,7 +2462,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <f>'RECS HC2.1'!B27/SUM('RECS HC2.1'!B24,'RECS HC2.1'!B27)</f>
         <v>0.1988155668358714</v>
@@ -2462,19 +2482,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AI11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -2578,9 +2601,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -2685,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -2826,7 +2849,7 @@
         <v>10986.950194999999</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -2933,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -3040,9 +3063,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 23'!$C$81:$AJ$81,MATCH(B$1,'AEO Table 23'!$C$1:$AJ$1,0))</f>
@@ -3181,7 +3204,7 @@
         <v>2024.1020510000001</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -3322,7 +3345,7 @@
         <v>53323.015625</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -3429,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -3536,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -3643,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -3784,7 +3807,7 @@
         <v>15.687836000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -3891,9 +3914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -3998,9 +4021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -4102,6 +4125,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4121,15 +4465,15 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:AM143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="6">
         <v>2017</v>
@@ -4234,67 +4578,67 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -4401,10 +4745,10 @@
         <v>3</v>
       </c>
       <c r="AK12" s="20" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -4514,18 +4858,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -4638,7 +4982,7 @@
         <v>6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +5095,7 @@
         <v>4.7980000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -4864,7 +5208,7 @@
         <v>-3.617E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +5321,7 @@
         <v>1.0512000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5090,7 +5434,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -5203,7 +5547,7 @@
         <v>-5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -5316,7 +5660,7 @@
         <v>0.100067</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -5429,7 +5773,7 @@
         <v>-8.4930000000000005E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -5542,7 +5886,7 @@
         <v>3.7221999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -5655,12 +5999,12 @@
         <v>7.0679999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -5773,7 +6117,7 @@
         <v>6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -5886,7 +6230,7 @@
         <v>-3.617E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -5999,7 +6343,7 @@
         <v>3.7221999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -6112,7 +6456,7 @@
         <v>1.8804999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -6225,7 +6569,7 @@
         <v>-2.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -6338,12 +6682,12 @@
         <v>9.8840000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -6456,7 +6800,7 @@
         <v>4.3169999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -6569,7 +6913,7 @@
         <v>1.0052E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -6682,7 +7026,7 @@
         <v>-1.7814E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -6795,7 +7139,7 @@
         <v>-1.9972E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -6908,7 +7252,7 @@
         <v>1.9893000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -7021,12 +7365,12 @@
         <v>6.4710000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -7139,7 +7483,7 @@
         <v>3.388E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -7252,7 +7596,7 @@
         <v>9.5960000000000004E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -7365,7 +7709,7 @@
         <v>-7.7429999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -7478,12 +7822,12 @@
         <v>5.0569999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -7596,7 +7940,7 @@
         <v>1.312E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -7709,7 +8053,7 @@
         <v>1.4281E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -7822,12 +8166,12 @@
         <v>1.3344999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -7940,7 +8284,7 @@
         <v>7.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -8053,17 +8397,17 @@
         <v>6.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -8176,7 +8520,7 @@
         <v>2.3700000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -8289,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -8402,7 +8746,7 @@
         <v>3.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -8515,7 +8859,7 @@
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
@@ -8628,12 +8972,12 @@
         <v>6.6799999999999997E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
@@ -8746,7 +9090,7 @@
         <v>4.666E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>74</v>
       </c>
@@ -8859,7 +9203,7 @@
         <v>4.829E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -8972,7 +9316,7 @@
         <v>4.9589999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>77</v>
       </c>
@@ -9085,7 +9429,7 @@
         <v>4.921E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
@@ -9198,12 +9542,12 @@
         <v>3.052E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -9316,7 +9660,7 @@
         <v>2.3310000000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>84</v>
       </c>
@@ -9429,7 +9773,7 @@
         <v>2.186E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -9542,7 +9886,7 @@
         <v>6.0159999999999996E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>88</v>
       </c>
@@ -9655,12 +9999,12 @@
         <v>2.0630000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>91</v>
       </c>
@@ -9773,7 +10117,7 @@
         <v>-7.4790000000000004E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>92</v>
       </c>
@@ -9886,22 +10230,22 @@
         <v>-6.979E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C86" s="16">
         <v>0.97444900000000001</v>
@@ -10009,7 +10353,7 @@
         <v>-7.1300000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -10122,7 +10466,7 @@
         <v>-1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
@@ -10235,17 +10579,17 @@
         <v>-5.8219999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C91" s="16">
         <v>0.98605799999999999</v>
@@ -10353,7 +10697,7 @@
         <v>-2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -10466,7 +10810,7 @@
         <v>-6.2299999999999996E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -10579,22 +10923,22 @@
         <v>-1.709E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>106</v>
       </c>
@@ -10707,7 +11051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>109</v>
       </c>
@@ -10820,7 +11164,7 @@
         <v>7.5580999999999995E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>111</v>
       </c>
@@ -10933,7 +11277,7 @@
         <v>8.6912000000000003E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>113</v>
       </c>
@@ -11046,12 +11390,12 @@
         <v>7.5609999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>116</v>
       </c>
@@ -11164,7 +11508,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>117</v>
       </c>
@@ -11277,7 +11621,7 @@
         <v>7.7072000000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>118</v>
       </c>
@@ -11390,7 +11734,7 @@
         <v>8.1608E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>119</v>
       </c>
@@ -11503,12 +11847,12 @@
         <v>7.7082999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>121</v>
       </c>
@@ -11621,7 +11965,7 @@
         <v>9.4079999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
@@ -11734,12 +12078,12 @@
         <v>7.2466000000000003E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>126</v>
       </c>
@@ -11852,7 +12196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>127</v>
       </c>
@@ -11965,7 +12309,7 @@
         <v>7.2416999999999995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>128</v>
       </c>
@@ -12078,7 +12422,7 @@
         <v>7.3528999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>129</v>
       </c>
@@ -12191,10 +12535,10 @@
         <v>7.2419999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C116" s="48"/>
       <c r="D116" s="48"/>
@@ -12232,134 +12576,134 @@
       <c r="AJ116" s="48"/>
       <c r="AK116" s="48"/>
     </row>
-    <row r="117" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -12382,15 +12726,15 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:AU149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="6">
         <v>2017</v>
@@ -12495,67 +12839,67 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -12662,10 +13006,10 @@
         <v>3</v>
       </c>
       <c r="AK12" s="20" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>142</v>
       </c>
@@ -12775,18 +13119,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>145</v>
       </c>
@@ -12899,7 +13243,7 @@
         <v>-9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>147</v>
       </c>
@@ -13012,7 +13356,7 @@
         <v>1.758E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
@@ -13125,7 +13469,7 @@
         <v>5.3090000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>151</v>
       </c>
@@ -13238,7 +13582,7 @@
         <v>6.019E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>153</v>
       </c>
@@ -13351,7 +13695,7 @@
         <v>4.993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>155</v>
       </c>
@@ -13464,7 +13808,7 @@
         <v>9.5300000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
@@ -13577,7 +13921,7 @@
         <v>5.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>159</v>
       </c>
@@ -13690,7 +14034,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>161</v>
       </c>
@@ -13803,7 +14147,7 @@
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>163</v>
       </c>
@@ -13916,7 +14260,7 @@
         <v>5.9069999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>165</v>
       </c>
@@ -14029,7 +14373,7 @@
         <v>7.267E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>167</v>
       </c>
@@ -14142,17 +14486,17 @@
         <v>4.1139999999999996E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>171</v>
       </c>
@@ -14265,7 +14609,7 @@
         <v>6.0270000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>172</v>
       </c>
@@ -14378,7 +14722,7 @@
         <v>9.7350000000000006E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>173</v>
       </c>
@@ -14491,7 +14835,7 @@
         <v>8.8909999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>174</v>
       </c>
@@ -14604,7 +14948,7 @@
         <v>9.2250000000000006E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>175</v>
       </c>
@@ -14717,7 +15061,7 @@
         <v>1.1698E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>176</v>
       </c>
@@ -14830,7 +15174,7 @@
         <v>1.0999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>177</v>
       </c>
@@ -14943,7 +15287,7 @@
         <v>7.3920000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>178</v>
       </c>
@@ -15056,7 +15400,7 @@
         <v>8.7690000000000008E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>179</v>
       </c>
@@ -15169,7 +15513,7 @@
         <v>9.5049999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>180</v>
       </c>
@@ -15282,7 +15626,7 @@
         <v>1.1878E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>181</v>
       </c>
@@ -15395,7 +15739,7 @@
         <v>1.2932000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>182</v>
       </c>
@@ -15508,17 +15852,17 @@
         <v>9.6989999999999993E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>184</v>
       </c>
@@ -15631,7 +15975,7 @@
         <v>1.8190000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>186</v>
       </c>
@@ -15744,7 +16088,7 @@
         <v>6.0300000000000002E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>187</v>
       </c>
@@ -15857,12 +16201,12 @@
         <v>6.2E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>188</v>
       </c>
@@ -15975,7 +16319,7 @@
         <v>6.5620000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>189</v>
       </c>
@@ -16088,12 +16432,12 @@
         <v>9.0369999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>191</v>
       </c>
@@ -16206,7 +16550,7 @@
         <v>8.1300000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>192</v>
       </c>
@@ -16319,7 +16663,7 @@
         <v>2.2680000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>193</v>
       </c>
@@ -16432,12 +16776,12 @@
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>195</v>
       </c>
@@ -16550,12 +16894,12 @@
         <v>2.2231999999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>197</v>
       </c>
@@ -16668,7 +17012,7 @@
         <v>4.0499999999999998E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>198</v>
       </c>
@@ -16781,17 +17125,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>201</v>
       </c>
@@ -16904,12 +17248,12 @@
         <v>2.6079000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>203</v>
       </c>
@@ -17022,22 +17366,22 @@
         <v>4.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>204</v>
       </c>
@@ -17150,7 +17494,7 @@
         <v>2.555E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>206</v>
       </c>
@@ -17263,7 +17607,7 @@
         <v>5.0028999999999997E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>208</v>
       </c>
@@ -17376,7 +17720,7 @@
         <v>5.0278000000000003E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
@@ -17489,7 +17833,7 @@
         <v>3.9773000000000003E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>210</v>
       </c>
@@ -17602,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>212</v>
       </c>
@@ -17715,12 +18059,12 @@
         <v>4.8757000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>213</v>
       </c>
@@ -17833,7 +18177,7 @@
         <v>2.5639999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>214</v>
       </c>
@@ -17946,7 +18290,7 @@
         <v>5.0034000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>215</v>
       </c>
@@ -18059,7 +18403,7 @@
         <v>5.1329E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>216</v>
       </c>
@@ -18172,7 +18516,7 @@
         <v>4.2604999999999997E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>217</v>
       </c>
@@ -18285,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>218</v>
       </c>
@@ -18398,12 +18742,12 @@
         <v>4.7310999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>219</v>
       </c>
@@ -18516,7 +18860,7 @@
         <v>1.8010000000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>220</v>
       </c>
@@ -18629,12 +18973,12 @@
         <v>5.4919999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>221</v>
       </c>
@@ -18747,7 +19091,7 @@
         <v>2.5820000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>222</v>
       </c>
@@ -18860,7 +19204,7 @@
         <v>4.6821000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>223</v>
       </c>
@@ -18973,7 +19317,7 @@
         <v>4.6723000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>224</v>
       </c>
@@ -19086,7 +19430,7 @@
         <v>3.4465000000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>225</v>
       </c>
@@ -19199,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>226</v>
       </c>
@@ -19312,10 +19656,10 @@
         <v>4.0757000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C102" s="48"/>
       <c r="D102" s="48"/>
@@ -19353,54 +19697,54 @@
       <c r="AJ102" s="48"/>
       <c r="AK102" s="48"/>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -19420,20 +19764,20 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" customWidth="1"/>
-    <col min="2" max="7" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="49" t="s">
-        <v>319</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -19442,10 +19786,10 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -19453,41 +19797,41 @@
       <c r="F3" s="51"/>
       <c r="G3" s="52"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
     </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="26" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
-        <v>328</v>
       </c>
       <c r="B6" s="28">
         <v>118.2</v>
@@ -19508,9 +19852,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>3</v>
@@ -19531,7 +19875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>244</v>
       </c>
@@ -19554,7 +19898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>245</v>
       </c>
@@ -19577,7 +19921,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>246</v>
       </c>
@@ -19600,7 +19944,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>247</v>
       </c>
@@ -19623,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>248</v>
       </c>
@@ -19646,7 +19990,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>249</v>
       </c>
@@ -19669,7 +20013,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>250</v>
       </c>
@@ -19692,7 +20036,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>251</v>
       </c>
@@ -19715,7 +20059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>252</v>
       </c>
@@ -19738,7 +20082,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>253</v>
       </c>
@@ -19761,7 +20105,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>254</v>
       </c>
@@ -19784,7 +20128,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>255</v>
       </c>
@@ -19807,7 +20151,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>256</v>
       </c>
@@ -19830,7 +20174,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>257</v>
       </c>
@@ -19853,7 +20197,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>258</v>
       </c>
@@ -19876,9 +20220,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>3</v>
@@ -19899,7 +20243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>259</v>
       </c>
@@ -19922,9 +20266,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25" s="32">
         <v>82.2</v>
@@ -19945,9 +20289,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B26" s="32">
         <v>12.5</v>
@@ -19968,7 +20312,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>260</v>
       </c>
@@ -19991,9 +20335,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>3</v>
@@ -20014,7 +20358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>261</v>
       </c>
@@ -20037,7 +20381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>262</v>
       </c>
@@ -20060,9 +20404,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B31" s="32">
         <v>7.4</v>
@@ -20083,9 +20427,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>3</v>
@@ -20106,9 +20450,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B33" s="32">
         <v>42.5</v>
@@ -20129,9 +20473,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B34" s="32">
         <v>33.5</v>
@@ -20152,9 +20496,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" s="32">
         <v>12.7</v>
@@ -20175,9 +20519,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="32">
         <v>22.8</v>
@@ -20198,7 +20542,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>263</v>
       </c>
@@ -20221,9 +20565,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>3</v>
@@ -20244,9 +20588,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="32">
         <v>20.8</v>
@@ -20267,7 +20611,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>265</v>
       </c>
@@ -20290,7 +20634,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>266</v>
       </c>
@@ -20313,7 +20657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>267</v>
       </c>
@@ -20336,7 +20680,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>268</v>
       </c>
@@ -20359,7 +20703,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>269</v>
       </c>
@@ -20382,7 +20726,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>270</v>
       </c>
@@ -20405,9 +20749,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" s="32">
         <v>3.8</v>
@@ -20428,9 +20772,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>3</v>
@@ -20451,9 +20795,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" s="32">
         <v>47.5</v>
@@ -20474,9 +20818,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="32">
         <v>29.5</v>
@@ -20497,9 +20841,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="32">
         <v>1.8</v>
@@ -20520,9 +20864,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" s="32">
         <v>2.1</v>
@@ -20543,9 +20887,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="32">
         <v>37.299999999999997</v>
@@ -20566,9 +20910,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>3</v>
@@ -20589,9 +20933,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B54" s="39">
         <v>40.200000000000003</v>
@@ -20612,7 +20956,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>272</v>
       </c>
@@ -20635,7 +20979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
         <v>273</v>
       </c>
@@ -20658,7 +21002,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>274</v>
       </c>
@@ -20681,9 +21025,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B58" s="39">
         <v>6.7</v>
@@ -20704,9 +21048,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="39">
         <v>3</v>
@@ -20727,7 +21071,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>275</v>
       </c>
@@ -20750,9 +21094,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="39">
         <v>0.7</v>
@@ -20773,9 +21117,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>3</v>
@@ -20796,9 +21140,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" s="39">
         <v>73.099999999999994</v>
@@ -20819,7 +21163,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>276</v>
       </c>
@@ -20842,9 +21186,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="39">
         <v>5.4</v>
@@ -20865,9 +21209,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="39">
         <v>4.4000000000000004</v>
@@ -20888,9 +21232,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="39">
         <v>1.8</v>
@@ -20911,9 +21255,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B68" s="39">
         <v>1.2</v>
@@ -20934,9 +21278,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" s="39">
         <v>1.3</v>
@@ -20957,9 +21301,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B70" s="39">
         <v>21.1</v>
@@ -20980,9 +21324,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>3</v>
@@ -21003,7 +21347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>278</v>
       </c>
@@ -21026,7 +21370,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>3</v>
       </c>
@@ -21049,7 +21393,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>4</v>
       </c>
@@ -21072,7 +21416,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>5</v>
       </c>
@@ -21095,7 +21439,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>6</v>
       </c>
@@ -21118,7 +21462,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>7</v>
       </c>
@@ -21141,7 +21485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>8</v>
       </c>
@@ -21164,9 +21508,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B79" s="39">
         <v>16</v>
@@ -21187,9 +21531,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>3</v>
@@ -21210,7 +21554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>0</v>
       </c>
@@ -21233,7 +21577,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>1</v>
       </c>
@@ -21256,7 +21600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>2</v>
       </c>
@@ -21279,7 +21623,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>3</v>
       </c>
@@ -21302,7 +21646,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>4</v>
       </c>
@@ -21325,9 +21669,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B86" s="39">
         <v>5.3</v>
@@ -21348,9 +21692,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>3</v>
@@ -21371,7 +21715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>1</v>
       </c>
@@ -21394,7 +21738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>2</v>
       </c>
@@ -21417,7 +21761,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>3</v>
       </c>
@@ -21440,7 +21784,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>4</v>
       </c>
@@ -21463,9 +21807,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92" s="39">
         <v>22.4</v>
@@ -21486,9 +21830,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B93" s="38" t="s">
         <v>3</v>
@@ -21509,7 +21853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>0</v>
       </c>
@@ -21532,7 +21876,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>1</v>
       </c>
@@ -21555,7 +21899,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>2</v>
       </c>
@@ -21578,9 +21922,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B97" s="39">
         <v>12.9</v>
@@ -21601,9 +21945,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>3</v>
@@ -21624,7 +21968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>0</v>
       </c>
@@ -21647,7 +21991,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>1</v>
       </c>
@@ -21670,9 +22014,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B101" s="39">
         <v>2.2000000000000002</v>
@@ -21693,7 +22037,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="35" t="s">
         <v>277</v>
       </c>
@@ -21716,7 +22060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>279</v>
       </c>
@@ -21739,9 +22083,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B104" s="39">
         <v>20.6</v>
@@ -21762,9 +22106,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B105" s="39">
         <v>14.6</v>
@@ -21785,7 +22129,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>280</v>
       </c>
@@ -21808,9 +22152,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107" s="39">
         <v>37.299999999999997</v>
@@ -21831,9 +22175,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>3</v>
@@ -21854,7 +22198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>279</v>
       </c>
@@ -21877,9 +22221,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B110" s="39">
         <v>7.5</v>
@@ -21900,9 +22244,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B111" s="39">
         <v>37.9</v>
@@ -21923,7 +22267,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
         <v>280</v>
       </c>
@@ -21946,9 +22290,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B113" s="39">
         <v>37.299999999999997</v>
@@ -21969,9 +22313,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B114" s="38" t="s">
         <v>3</v>
@@ -21992,7 +22336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>279</v>
       </c>
@@ -22015,9 +22359,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B116" s="39">
         <v>11.4</v>
@@ -22038,9 +22382,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B117" s="39">
         <v>30.3</v>
@@ -22061,9 +22405,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B118" s="39">
         <v>5.2</v>
@@ -22084,7 +22428,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
         <v>280</v>
       </c>
@@ -22107,9 +22451,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B120" s="32">
         <v>37.299999999999997</v>
@@ -22130,9 +22474,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B121" s="38" t="s">
         <v>3</v>
@@ -22153,9 +22497,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B122" s="39">
         <v>37.5</v>
@@ -22176,9 +22520,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B123" s="39">
         <v>57.9</v>
@@ -22199,9 +22543,9 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B124" s="39">
         <v>20.9</v>
@@ -22222,9 +22566,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B125" s="39">
         <v>1.9</v>
@@ -22245,9 +22589,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B126" s="38" t="s">
         <v>3</v>
@@ -22268,7 +22612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>281</v>
       </c>
@@ -22291,9 +22635,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B128" s="39">
         <v>48.4</v>
@@ -22314,9 +22658,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B129" s="39">
         <v>9</v>
@@ -22337,9 +22681,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B130" s="39">
         <v>4.8</v>
@@ -22360,9 +22704,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B131" s="38" t="s">
         <v>3</v>
@@ -22383,7 +22727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>279</v>
       </c>
@@ -22406,7 +22750,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
         <v>280</v>
       </c>
@@ -22429,9 +22773,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B134" s="39">
         <v>6.8</v>
@@ -22452,9 +22796,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B135" s="38" t="s">
         <v>3</v>
@@ -22475,9 +22819,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B136" s="39">
         <v>5.8</v>
@@ -22498,9 +22842,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B137" s="39">
         <v>17.8</v>
@@ -22521,9 +22865,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B138" s="39">
         <v>28.2</v>
@@ -22544,9 +22888,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B139" s="39">
         <v>37.6</v>
@@ -22567,9 +22911,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B140" s="39">
         <v>12.9</v>
@@ -22590,9 +22934,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B141" s="39">
         <v>12.2</v>
@@ -22613,9 +22957,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B142" s="39">
         <v>3.7</v>
@@ -22636,9 +22980,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B143" s="38" t="s">
         <v>3</v>
@@ -22659,9 +23003,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B144" s="39">
         <v>48.7</v>
@@ -22682,9 +23026,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B145" s="39">
         <v>68.3</v>
@@ -22705,9 +23049,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B146" s="39">
         <v>1.2</v>
@@ -22728,9 +23072,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B147" s="38" t="s">
         <v>3</v>
@@ -22751,9 +23095,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B148" s="39">
         <v>47.7</v>
@@ -22774,7 +23118,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>273</v>
       </c>
@@ -22797,9 +23141,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B150" s="39">
         <v>25.3</v>
@@ -22820,9 +23164,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B151" s="39">
         <v>2</v>
@@ -22843,9 +23187,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B152" s="39">
         <v>1.4</v>
@@ -22866,9 +23210,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B153" s="38" t="s">
         <v>3</v>
@@ -22889,7 +23233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>0</v>
       </c>
@@ -22912,7 +23256,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>1</v>
       </c>
@@ -22935,7 +23279,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>2</v>
       </c>
@@ -22958,9 +23302,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B157" s="32">
         <v>2.9</v>
@@ -22981,9 +23325,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B158" s="38" t="s">
         <v>3</v>
@@ -23004,7 +23348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
         <v>279</v>
       </c>
@@ -23027,7 +23371,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="31" t="s">
         <v>280</v>
       </c>
@@ -23050,9 +23394,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B161" s="32">
         <v>14.7</v>
@@ -23073,9 +23417,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B162" s="38" t="s">
         <v>3</v>
@@ -23096,7 +23440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
         <v>279</v>
       </c>
@@ -23119,7 +23463,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
         <v>280</v>
       </c>
@@ -23142,9 +23486,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B165" s="32">
         <v>34.200000000000003</v>
@@ -23165,9 +23509,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B166" s="38" t="s">
         <v>3</v>
@@ -23188,7 +23532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>279</v>
       </c>
@@ -23211,7 +23555,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>280</v>
       </c>
@@ -23234,9 +23578,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B169" s="39">
         <v>21.1</v>
@@ -23257,9 +23601,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B170" s="38" t="s">
         <v>3</v>
@@ -23280,7 +23624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>279</v>
       </c>
@@ -23303,9 +23647,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B172" s="39">
         <v>68.599999999999994</v>
@@ -23326,9 +23670,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B173" s="39">
         <v>13.3</v>
@@ -23349,7 +23693,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>280</v>
       </c>
@@ -23372,9 +23716,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>3</v>
@@ -23395,7 +23739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>279</v>
       </c>
@@ -23418,7 +23762,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
         <v>280</v>
       </c>
@@ -23441,9 +23785,9 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B178" s="32">
         <v>30.5</v>
@@ -23464,9 +23808,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B179" s="38" t="s">
         <v>3</v>
@@ -23487,7 +23831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
         <v>279</v>
       </c>
@@ -23510,7 +23854,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>280</v>
       </c>
@@ -23533,9 +23877,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B182" s="39">
         <v>21.1</v>
@@ -23556,9 +23900,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B183" s="38" t="s">
         <v>3</v>
@@ -23579,7 +23923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="40" t="s">
         <v>279</v>
       </c>
@@ -23602,7 +23946,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="37" t="s">
         <v>280</v>
       </c>
@@ -23625,9 +23969,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B186" s="39">
         <v>30.5</v>
@@ -23648,9 +23992,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>3</v>
@@ -23671,9 +24015,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B188" s="39">
         <v>2.7</v>
@@ -23694,9 +24038,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B189" s="39">
         <v>4.7</v>
@@ -23717,9 +24061,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B190" s="39">
         <v>0.8</v>
@@ -23740,9 +24084,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B191" s="39">
         <v>79.3</v>
@@ -23763,9 +24107,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B192" s="39">
         <v>30.5</v>
@@ -23786,9 +24130,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B193" s="38" t="s">
         <v>3</v>
@@ -23809,9 +24153,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B194" s="39">
         <v>2.5</v>
@@ -23832,9 +24176,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B195" s="39">
         <v>0.7</v>
@@ -23855,9 +24199,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B196" s="39">
         <v>1.1000000000000001</v>
@@ -23878,9 +24222,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B197" s="39">
         <v>0.3</v>
@@ -23901,9 +24245,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B198" s="39">
         <v>0.3</v>
@@ -23924,9 +24268,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B199" s="39" t="s">
         <v>264</v>
@@ -23947,9 +24291,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B200" s="39">
         <v>5.4</v>
@@ -23970,9 +24314,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B201" s="39">
         <v>79.3</v>
@@ -23993,9 +24337,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B202" s="39">
         <v>30.5</v>
@@ -24016,9 +24360,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B203" s="30" t="s">
         <v>3</v>
@@ -24039,7 +24383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="31" t="s">
         <v>279</v>
       </c>
@@ -24062,7 +24406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
         <v>280</v>
       </c>
@@ -24085,9 +24429,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>3</v>
@@ -24108,9 +24452,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B207" s="39">
         <v>4</v>
@@ -24131,9 +24475,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B208" s="39">
         <v>1.6</v>
@@ -24154,9 +24498,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B209" s="39">
         <v>2.9</v>
@@ -24177,9 +24521,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B210" s="39">
         <v>109.8</v>
@@ -24200,9 +24544,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B211" s="30" t="s">
         <v>3</v>
@@ -24223,9 +24567,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B212" s="39">
         <v>4</v>
@@ -24246,9 +24590,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B213" s="39">
         <v>1.6</v>
@@ -24269,9 +24613,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B214" s="39">
         <v>0.3</v>
@@ -24292,9 +24636,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B215" s="39">
         <v>2.5</v>
@@ -24315,9 +24659,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B216" s="39">
         <v>109.8</v>
@@ -24338,9 +24682,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B217" s="38" t="s">
         <v>3</v>
@@ -24361,9 +24705,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A218" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B218" s="32">
         <v>5.6</v>
@@ -24384,9 +24728,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B219" s="32">
         <v>2.4</v>
@@ -24407,9 +24751,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B220" s="32">
         <v>4.2</v>
@@ -24430,9 +24774,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B221" s="32">
         <v>6.5</v>
@@ -24453,9 +24797,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="36" customFormat="1" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" s="36" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222" s="32">
         <v>6.6</v>
@@ -24476,9 +24820,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B223" s="32">
         <v>2.6</v>
@@ -24499,7 +24843,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="36" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:7" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="33"/>
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
@@ -24508,9 +24852,9 @@
       <c r="F224" s="43"/>
       <c r="G224" s="43"/>
     </row>
-    <row r="225" spans="1:7" s="36" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" s="36" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B225" s="54"/>
       <c r="C225" s="54"/>
@@ -24519,7 +24863,7 @@
       <c r="F225" s="54"/>
       <c r="G225" s="54"/>
     </row>
-    <row r="226" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -24528,17 +24872,17 @@
       <c r="F226"/>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="44"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="45"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="45"/>
     </row>
-    <row r="235" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:G2"/>
@@ -24555,19 +24899,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -24671,9 +25016,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -24778,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -24919,7 +25264,7 @@
         <v>3521.1839517766498</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -25026,7 +25371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -25133,9 +25478,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$25</f>
@@ -25274,7 +25619,7 @@
         <v>353411.18718020304</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -25415,7 +25760,7 @@
         <v>155443525.35427243</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -25522,7 +25867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -25629,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -25736,7 +26081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -25843,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -25950,9 +26295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -26057,9 +26402,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -26161,6 +26506,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -26174,19 +26840,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -26290,9 +26957,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -26397,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -26538,7 +27205,7 @@
         <v>873.78904822335028</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -26645,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -26752,9 +27419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 22'!$C$105:$AJ$105,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*10^3*About!$A$26</f>
@@ -26893,7 +27560,7 @@
         <v>87699.713819796962</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -27034,7 +27701,7 @@
         <v>38573630.895727582</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -27141,7 +27808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -27248,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -27355,7 +28022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -27462,7 +28129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -27569,9 +28236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -27676,9 +28343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -27780,6 +28447,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -27793,19 +28781,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -27909,9 +28900,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -28016,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -28157,7 +29148,7 @@
         <v>79927125</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -28264,7 +29255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -28371,9 +29362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 23'!$C$88:$AJ$88,MATCH(B$1,'AEO Table 23'!$C$1:$AJ$1,0))*10^3</f>
@@ -28512,7 +29503,7 @@
         <v>2817965.3320000004</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -28653,7 +29644,7 @@
         <v>77065828.125</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -28760,7 +29751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -28867,7 +29858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -28974,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -29115,7 +30106,7 @@
         <v>113738.129</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -29222,9 +30213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -29329,9 +30320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -29433,6 +30424,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -29446,20 +30758,23 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
       <c r="B1" s="12">
         <v>2017</v>
       </c>
@@ -29563,9 +30878,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -29670,7 +30985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -29811,7 +31126,7 @@
         <v>1.2100288494077833</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -29918,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -30025,9 +31340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$25</f>
@@ -30166,7 +31481,7 @@
         <v>323.30879963451775</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -30307,7 +31622,7 @@
         <v>106158.289392978</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -30414,7 +31729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -30521,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -30628,7 +31943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -30735,7 +32050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -30842,9 +32157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -30949,9 +32264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -31053,6 +32368,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -31066,19 +32702,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -31182,9 +32821,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="47">
         <v>0</v>
@@ -31289,7 +32928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -31430,7 +33069,7 @@
         <v>0.3002711505922166</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -31537,7 +33176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -31644,9 +33283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B6" s="47">
         <f>INDEX('AEO Table 22'!$C$100:$AJ$100,MATCH(B$1,'AEO Table 22'!$C$1:$AJ$1,0))*About!$A$26</f>
@@ -31785,7 +33424,7 @@
         <v>80.229744365482233</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>233</v>
       </c>
@@ -31926,7 +33565,7 @@
         <v>26343.398107021996</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -32033,7 +33672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -32140,7 +33779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -32247,7 +33886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -32354,7 +33993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -32461,9 +34100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
@@ -32568,9 +34207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
@@ -32672,6 +34311,327 @@
         <v>0</v>
       </c>
       <c r="AI14" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="47">
+        <v>0</v>
+      </c>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
+        <v>0</v>
+      </c>
+      <c r="M15" s="47">
+        <v>0</v>
+      </c>
+      <c r="N15" s="47">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <v>0</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <v>0</v>
+      </c>
+      <c r="S15" s="47">
+        <v>0</v>
+      </c>
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47">
+        <v>0</v>
+      </c>
+      <c r="V15" s="47">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="47">
+        <v>0</v>
+      </c>
+      <c r="N16" s="47">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
+        <v>0</v>
+      </c>
+      <c r="V16" s="47">
+        <v>0</v>
+      </c>
+      <c r="W16" s="47">
+        <v>0</v>
+      </c>
+      <c r="X16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>0</v>
+      </c>
+      <c r="U17" s="47">
+        <v>0</v>
+      </c>
+      <c r="V17" s="47">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CCBC4-6F2D-42BC-8159-093F749043D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667D62F-F72E-4D50-8673-557E35074178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="105" windowWidth="18555" windowHeight="9885" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="15555" windowHeight="10200" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2509,6 +2509,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6">
       <alignment wrapText="1"/>
     </xf>
@@ -2530,10 +2534,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -2932,7 +2932,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="20.06640625" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15254,42 +15254,42 @@
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="50"/>
-      <c r="N116" s="50"/>
-      <c r="O116" s="50"/>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="50"/>
-      <c r="R116" s="50"/>
-      <c r="S116" s="50"/>
-      <c r="T116" s="50"/>
-      <c r="U116" s="50"/>
-      <c r="V116" s="50"/>
-      <c r="W116" s="50"/>
-      <c r="X116" s="50"/>
-      <c r="Y116" s="50"/>
-      <c r="Z116" s="50"/>
-      <c r="AA116" s="50"/>
-      <c r="AB116" s="50"/>
-      <c r="AC116" s="50"/>
-      <c r="AD116" s="50"/>
-      <c r="AE116" s="50"/>
-      <c r="AF116" s="50"/>
-      <c r="AG116" s="50"/>
-      <c r="AH116" s="50"/>
-      <c r="AI116" s="50"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
+      <c r="P116" s="54"/>
+      <c r="Q116" s="54"/>
+      <c r="R116" s="54"/>
+      <c r="S116" s="54"/>
+      <c r="T116" s="54"/>
+      <c r="U116" s="54"/>
+      <c r="V116" s="54"/>
+      <c r="W116" s="54"/>
+      <c r="X116" s="54"/>
+      <c r="Y116" s="54"/>
+      <c r="Z116" s="54"/>
+      <c r="AA116" s="54"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
+      <c r="AH116" s="54"/>
+      <c r="AI116" s="54"/>
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="7" t="s">
@@ -22022,42 +22022,42 @@
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="50"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="50"/>
-      <c r="O102" s="50"/>
-      <c r="P102" s="50"/>
-      <c r="Q102" s="50"/>
-      <c r="R102" s="50"/>
-      <c r="S102" s="50"/>
-      <c r="T102" s="50"/>
-      <c r="U102" s="50"/>
-      <c r="V102" s="50"/>
-      <c r="W102" s="50"/>
-      <c r="X102" s="50"/>
-      <c r="Y102" s="50"/>
-      <c r="Z102" s="50"/>
-      <c r="AA102" s="50"/>
-      <c r="AB102" s="50"/>
-      <c r="AC102" s="50"/>
-      <c r="AD102" s="50"/>
-      <c r="AE102" s="50"/>
-      <c r="AF102" s="50"/>
-      <c r="AG102" s="50"/>
-      <c r="AH102" s="50"/>
-      <c r="AI102" s="50"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="54"/>
+      <c r="R102" s="54"/>
+      <c r="S102" s="54"/>
+      <c r="T102" s="54"/>
+      <c r="U102" s="54"/>
+      <c r="V102" s="54"/>
+      <c r="W102" s="54"/>
+      <c r="X102" s="54"/>
+      <c r="Y102" s="54"/>
+      <c r="Z102" s="54"/>
+      <c r="AA102" s="54"/>
+      <c r="AB102" s="54"/>
+      <c r="AC102" s="54"/>
+      <c r="AD102" s="54"/>
+      <c r="AE102" s="54"/>
+      <c r="AF102" s="54"/>
+      <c r="AG102" s="54"/>
+      <c r="AH102" s="54"/>
+      <c r="AI102" s="54"/>
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="7" t="s">
@@ -22138,37 +22138,37 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -27215,15 +27215,15 @@
       <c r="G224" s="29"/>
     </row>
     <row r="225" spans="1:7" s="22" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="56" t="s">
+      <c r="A225" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="B225" s="56"/>
-      <c r="C225" s="56"/>
-      <c r="D225" s="56"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="56"/>
-      <c r="G225" s="56"/>
+      <c r="B225" s="60"/>
+      <c r="C225" s="60"/>
+      <c r="D225" s="60"/>
+      <c r="E225" s="60"/>
+      <c r="F225" s="60"/>
+      <c r="G225" s="60"/>
     </row>
     <row r="226" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226"/>
@@ -27260,8 +27260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA048DE0-AEAD-4096-B0F3-BDB0F419C9A6}">
   <dimension ref="A1:AI118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27273,13 +27273,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="57"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="53" t="s">
         <v>475</v>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       <c r="B3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
@@ -27498,132 +27498,132 @@
       <c r="C6" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="D6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>0.80118443316412857</v>
       </c>
-      <c r="S6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="S6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>4.0059221658206434</v>
       </c>
-      <c r="T6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="T6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>11.2165820642978</v>
       </c>
-      <c r="U6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="U6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>24.035532994923859</v>
       </c>
-      <c r="V6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="V6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>48.872250423011842</v>
       </c>
-      <c r="W6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="W6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>95.340947546531297</v>
       </c>
-      <c r="X6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="X6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>180.26649746192894</v>
       </c>
-      <c r="Y6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Y6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>337.29864636209811</v>
       </c>
-      <c r="Z6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Z6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>622.52030456852799</v>
       </c>
-      <c r="AA6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AA6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>908.54314720812181</v>
       </c>
-      <c r="AB6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AB6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>1196.9695431472082</v>
       </c>
-      <c r="AC6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AC6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>1488.6006768189511</v>
       </c>
-      <c r="AD6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AD6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>1782.6353637901859</v>
       </c>
-      <c r="AE6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AE6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>2079.0736040609136</v>
       </c>
-      <c r="AF6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AF6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>2377.1142131979691</v>
       </c>
-      <c r="AG6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AG6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>2676.7571912013536</v>
       </c>
-      <c r="AH6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AH6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>2976.4001692047377</v>
       </c>
-      <c r="AI6" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AI6" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>3276.8443316412859</v>
       </c>
     </row>
@@ -27836,132 +27836,132 @@
       <c r="C9" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="D9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="E9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="E9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="F9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="F9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="G9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="G9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="H9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="H9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="I9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="I9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="J9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="J9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="K9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="K9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="L9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="L9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="M9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="M9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="N9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="N9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="O9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="O9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="P9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="P9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="Q9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Q9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="R9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="R9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14723.366328257192</v>
       </c>
-      <c r="S9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="S9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14725.769881556684</v>
       </c>
-      <c r="T9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="T9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14730.576988155668</v>
       </c>
-      <c r="U9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="U9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14740.191201353638</v>
       </c>
-      <c r="V9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="V9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14758.618443316413</v>
       </c>
-      <c r="W9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="W9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14792.268189509306</v>
       </c>
-      <c r="X9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="X9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14854.760575296108</v>
       </c>
-      <c r="Y9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Y9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>14970.131133671743</v>
       </c>
-      <c r="Z9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Z9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>15180.041455160743</v>
       </c>
-      <c r="AA9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AA9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>15389.951776649747</v>
       </c>
-      <c r="AB9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AB9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>15601.464467005077</v>
       </c>
-      <c r="AC9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AC9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>15815.3807106599</v>
       </c>
-      <c r="AD9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AD9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>16030.899323181049</v>
       </c>
-      <c r="AE9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AE9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>16248.020304568528</v>
       </c>
-      <c r="AF9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AF9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>16465.942470389175</v>
       </c>
-      <c r="AG9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AG9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>16685.467005076145</v>
       </c>
-      <c r="AH9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AH9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>16904.190355329949</v>
       </c>
-      <c r="AI9" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AI9" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>17124.516074450083</v>
       </c>
     </row>
@@ -27972,132 +27972,132 @@
       <c r="C10" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="D10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>17461559.94416244</v>
       </c>
-      <c r="E10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="E10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>19973253.112521149</v>
       </c>
-      <c r="F10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="F10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>22441871.401015226</v>
       </c>
-      <c r="G10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="G10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>24825707.551607445</v>
       </c>
-      <c r="H10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="H10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>27213173.868866324</v>
       </c>
-      <c r="I10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="I10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>29609795.320642978</v>
       </c>
-      <c r="J10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="J10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>32023935.47123519</v>
       </c>
-      <c r="K10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="K10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>34465783.784263954</v>
       </c>
-      <c r="L10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="L10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>36933488.722504228</v>
       </c>
-      <c r="M10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="M10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>39430633.983925544</v>
       </c>
-      <c r="N10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="N10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>41962649.195431471</v>
       </c>
-      <c r="O10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="O10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>44543176.124365479</v>
       </c>
-      <c r="P10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="P10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>47161258.573604062</v>
       </c>
-      <c r="Q10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Q10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>49804714.533840947</v>
       </c>
-      <c r="R10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="R10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>52477610.817258887</v>
       </c>
-      <c r="S10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="S10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>55184090.348561756</v>
       </c>
-      <c r="T10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="T10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>57916351.99492386</v>
       </c>
-      <c r="U10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="U10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>60668779.453468695</v>
       </c>
-      <c r="V10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="V10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>63454623.513536379</v>
       </c>
-      <c r="W10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="W10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>66274166.993231803</v>
       </c>
-      <c r="X10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="X10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>69122138.900169209</v>
       </c>
-      <c r="Y10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Y10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>72010081.898477152</v>
       </c>
-      <c r="Z10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="Z10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>74921691.884940788</v>
       </c>
-      <c r="AA10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AA10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>77864574.503384098</v>
       </c>
-      <c r="AB10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AB10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>80836991.98477158</v>
       </c>
-      <c r="AC10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AC10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>83838866.614213184</v>
       </c>
-      <c r="AD10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AD10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>86882648.797800347</v>
       </c>
-      <c r="AE10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AE10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>89970080.310490683</v>
       </c>
-      <c r="AF10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AF10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>93103099.217428088</v>
       </c>
-      <c r="AG10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AG10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>96275513.965313017</v>
       </c>
-      <c r="AH10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AH10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>99494371.772419631</v>
       </c>
-      <c r="AI10" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+      <c r="AI10" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
         <v>102753040.43401015</v>
       </c>
     </row>
@@ -29325,132 +29325,132 @@
       <c r="C25" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="D25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>0.1988155668358714</v>
       </c>
-      <c r="S25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="S25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>0.99407783417935713</v>
       </c>
-      <c r="T25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="T25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>2.7834179357021993</v>
       </c>
-      <c r="U25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="U25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>5.9644670050761421</v>
       </c>
-      <c r="V25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="V25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>12.127749576988156</v>
       </c>
-      <c r="W25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="W25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>23.659052453468696</v>
       </c>
-      <c r="X25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="X25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>44.733502538071065</v>
       </c>
-      <c r="Y25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Y25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>83.70135363790186</v>
       </c>
-      <c r="Z25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Z25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>154.47969543147207</v>
       </c>
-      <c r="AA25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AA25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>225.45685279187816</v>
       </c>
-      <c r="AB25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AB25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>297.03045685279187</v>
       </c>
-      <c r="AC25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AC25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>369.39932318104906</v>
       </c>
-      <c r="AD25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AD25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>442.36463620981391</v>
       </c>
-      <c r="AE25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AE25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>515.92639593908632</v>
       </c>
-      <c r="AF25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AF25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>589.88578680203045</v>
       </c>
-      <c r="AG25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AG25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>664.24280879864637</v>
       </c>
-      <c r="AH25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AH25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>738.59983079526228</v>
       </c>
-      <c r="AI25" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AI25" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>813.15566835871402</v>
       </c>
     </row>
@@ -29663,132 +29663,132 @@
       <c r="C28" t="s">
         <v>302</v>
       </c>
-      <c r="D28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="D28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="E28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="E28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="F28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="F28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="G28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="G28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="H28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="H28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="I28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="I28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="J28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="J28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="K28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="K28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="L28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="L28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="M28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="M28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="N28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="N28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="O28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="O28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="P28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="P28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="Q28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Q28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="R28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="R28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3653.6336717428089</v>
       </c>
-      <c r="S28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="S28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3654.2301184433163</v>
       </c>
-      <c r="T28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="T28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3655.4230118443315</v>
       </c>
-      <c r="U28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="U28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3657.8087986463624</v>
       </c>
-      <c r="V28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="V28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3662.381556683587</v>
       </c>
-      <c r="W28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="W28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3670.7318104906935</v>
       </c>
-      <c r="X28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="X28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3686.2394247038915</v>
       </c>
-      <c r="Y28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Y28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3714.8688663282569</v>
       </c>
-      <c r="Z28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Z28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3766.9585448392554</v>
       </c>
-      <c r="AA28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AA28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3819.0482233502539</v>
       </c>
-      <c r="AB28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AB28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3871.5355329949239</v>
       </c>
-      <c r="AC28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AC28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3924.6192893401012</v>
       </c>
-      <c r="AD28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AD28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>3978.1006768189509</v>
       </c>
-      <c r="AE28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AE28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4031.9796954314716</v>
       </c>
-      <c r="AF28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AF28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4086.0575296108291</v>
       </c>
-      <c r="AG28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AG28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4140.5329949238585</v>
       </c>
-      <c r="AH28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AH28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4194.8096446700511</v>
       </c>
-      <c r="AI28" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AI28" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4249.4839255499155</v>
       </c>
     </row>
@@ -29799,132 +29799,132 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="D29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4333122.0558375632</v>
       </c>
-      <c r="E29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="E29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>4956403.8874788499</v>
       </c>
-      <c r="F29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="F29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>5568996.5989847714</v>
       </c>
-      <c r="G29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="G29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>6160550.4483925551</v>
       </c>
-      <c r="H29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="H29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>6753005.1311336709</v>
       </c>
-      <c r="I29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="I29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>7347731.679357022</v>
       </c>
-      <c r="J29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="J29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>7946805.5287648048</v>
       </c>
-      <c r="K29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="K29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>8552755.2157360408</v>
       </c>
-      <c r="L29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="L29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>9165121.2774957698</v>
       </c>
-      <c r="M29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="M29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>9784793.0160744488</v>
       </c>
-      <c r="N29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="N29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>10413117.804568529</v>
       </c>
-      <c r="O29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="O29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>11053480.875634518</v>
       </c>
-      <c r="P29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="P29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>11703163.42639594</v>
       </c>
-      <c r="Q29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Q29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>12359142.466159053</v>
       </c>
-      <c r="R29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="R29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>13022427.182741117</v>
       </c>
-      <c r="S29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="S29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>13694045.65143824</v>
       </c>
-      <c r="T29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="T29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>14372062.005076142</v>
       </c>
-      <c r="U29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="U29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>15055082.546531303</v>
       </c>
-      <c r="V29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="V29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>15746395.486463621</v>
       </c>
-      <c r="W29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="W29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>16446071.006768189</v>
       </c>
-      <c r="X29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="X29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>17152801.099830795</v>
       </c>
-      <c r="Y29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Y29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>17869450.101522841</v>
       </c>
-      <c r="Z29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="Z29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>18591972.115059219</v>
       </c>
-      <c r="AA29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AA29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>19322254.496615905</v>
       </c>
-      <c r="AB29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AB29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>20059866.015228424</v>
       </c>
-      <c r="AC29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AC29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>20804787.385786802</v>
       </c>
-      <c r="AD29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AD29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>21560108.20219966</v>
       </c>
-      <c r="AE29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AE29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>22326260.689509306</v>
       </c>
-      <c r="AF29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AF29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>23103725.782571912</v>
       </c>
-      <c r="AG29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AG29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>23890967.034686971</v>
       </c>
-      <c r="AH29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AH29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>24689733.227580372</v>
       </c>
-      <c r="AI29" s="59">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+      <c r="AI29" s="52">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
         <v>25498378.565989845</v>
       </c>
     </row>
@@ -30939,7 +30939,7 @@
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="53" t="s">
         <v>476</v>
       </c>
     </row>
@@ -31157,131 +31157,131 @@
       <c r="C44" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="I44" s="59">
+      <c r="I44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="J44" s="59">
+      <c r="J44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="K44" s="59">
+      <c r="K44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="L44" s="59">
+      <c r="L44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="M44" s="59">
+      <c r="M44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="N44" s="59">
+      <c r="N44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="O44" s="59">
+      <c r="O44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="P44" s="59">
+      <c r="P44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="59">
+      <c r="Q44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="R44" s="59">
+      <c r="R44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="S44" s="59">
+      <c r="S44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.6023688663282572E-3</v>
       </c>
-      <c r="T44" s="59">
+      <c r="T44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>4.0059221658206431E-3</v>
       </c>
-      <c r="U44" s="59">
+      <c r="U44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>8.813028764805414E-3</v>
       </c>
-      <c r="V44" s="59">
+      <c r="V44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.7626057529610828E-2</v>
       </c>
-      <c r="W44" s="59">
+      <c r="W44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>3.445093062605753E-2</v>
       </c>
-      <c r="X44" s="59">
+      <c r="X44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>6.4895939086294416E-2</v>
       </c>
-      <c r="Y44" s="59">
+      <c r="Y44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.12097884940778343</v>
       </c>
-      <c r="Z44" s="59">
+      <c r="Z44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.22353045685279188</v>
       </c>
-      <c r="AA44" s="59">
+      <c r="AA44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.32608206429780034</v>
       </c>
-      <c r="AB44" s="59">
+      <c r="AB44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.42943485617597293</v>
       </c>
-      <c r="AC44" s="59">
+      <c r="AC44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.53358883248730971</v>
       </c>
-      <c r="AD44" s="59">
+      <c r="AD44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.63854399323181044</v>
       </c>
-      <c r="AE44" s="59">
+      <c r="AE44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.74510152284263964</v>
       </c>
-      <c r="AF44" s="59">
+      <c r="AF44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.85246023688663286</v>
       </c>
-      <c r="AG44" s="59">
+      <c r="AG44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.95901776649746173</v>
       </c>
-      <c r="AH44" s="59">
+      <c r="AH44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.0663764805414551</v>
       </c>
-      <c r="AI44" s="59">
+      <c r="AI44" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.1745363790186125</v>
       </c>
@@ -31495,131 +31495,131 @@
       <c r="C47" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="I47" s="59">
+      <c r="I47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="J47" s="59">
+      <c r="J47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="K47" s="59">
+      <c r="K47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="L47" s="59">
+      <c r="L47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="M47" s="59">
+      <c r="M47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="O47" s="59">
+      <c r="O47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="P47" s="59">
+      <c r="P47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="Q47" s="59">
+      <c r="Q47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="R47" s="59">
+      <c r="R47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.281478003384095</v>
       </c>
-      <c r="S47" s="59">
+      <c r="S47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.283881556683587</v>
       </c>
-      <c r="T47" s="59">
+      <c r="T47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.288688663282571</v>
       </c>
-      <c r="U47" s="59">
+      <c r="U47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.298302876480541</v>
       </c>
-      <c r="V47" s="59">
+      <c r="V47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.315928934010151</v>
       </c>
-      <c r="W47" s="59">
+      <c r="W47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.349578680203045</v>
       </c>
-      <c r="X47" s="59">
+      <c r="X47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.410468697123518</v>
       </c>
-      <c r="Y47" s="59">
+      <c r="Y47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.522634517766498</v>
       </c>
-      <c r="Z47" s="59">
+      <c r="Z47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.72693654822335</v>
       </c>
-      <c r="AA47" s="59">
+      <c r="AA47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.932039763113368</v>
       </c>
-      <c r="AB47" s="59">
+      <c r="AB47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.138745346869712</v>
       </c>
-      <c r="AC47" s="59">
+      <c r="AC47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.34785448392555</v>
       </c>
-      <c r="AD47" s="59">
+      <c r="AD47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.558565989847716</v>
       </c>
-      <c r="AE47" s="59">
+      <c r="AE47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.770879864636209</v>
       </c>
-      <c r="AF47" s="59">
+      <c r="AF47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.984796108291032</v>
       </c>
-      <c r="AG47" s="59">
+      <c r="AG47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.199513536379019</v>
       </c>
-      <c r="AH47" s="59">
+      <c r="AH47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.414230964467006</v>
       </c>
-      <c r="AI47" s="59">
+      <c r="AI47" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.629749576988155</v>
       </c>
@@ -31631,131 +31631,131 @@
       <c r="C48" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12315.146129441624</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>14252.651245346868</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>16163.320688663285</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>18022.250442470391</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>19883.632621827408</v>
       </c>
-      <c r="I48" s="59">
+      <c r="I48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>21750.645525380707</v>
       </c>
-      <c r="J48" s="59">
+      <c r="J48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>23628.409522842641</v>
       </c>
-      <c r="K48" s="59">
+      <c r="K48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>25523.398184433161</v>
       </c>
-      <c r="L48" s="59">
+      <c r="L48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>27434.291959390859</v>
       </c>
-      <c r="M48" s="59">
+      <c r="M48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>29363.270069373943</v>
       </c>
-      <c r="N48" s="59">
+      <c r="N48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>31313.626183587141</v>
       </c>
-      <c r="O48" s="59">
+      <c r="O48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>33293.85205583756</v>
       </c>
-      <c r="P48" s="59">
+      <c r="P48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>35297.29304822335</v>
       </c>
-      <c r="Q48" s="59">
+      <c r="Q48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>37316.284229272416</v>
       </c>
-      <c r="R48" s="59">
+      <c r="R48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>39353.341318104911</v>
       </c>
-      <c r="S48" s="59">
+      <c r="S48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>41411.0369179357</v>
       </c>
-      <c r="T48" s="59">
+      <c r="T48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>43484.366029610828</v>
       </c>
-      <c r="U48" s="59">
+      <c r="U48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>45569.800236886629</v>
       </c>
-      <c r="V48" s="59">
+      <c r="V48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>47675.58693231811</v>
       </c>
-      <c r="W48" s="59">
+      <c r="W48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>49801.847094754652</v>
       </c>
-      <c r="X48" s="59">
+      <c r="X48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>51945.280645516075</v>
       </c>
-      <c r="Y48" s="59">
+      <c r="Y48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>54112.975663282581</v>
       </c>
-      <c r="Z48" s="59">
+      <c r="Z48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>56294.906126057518</v>
       </c>
-      <c r="AA48" s="59">
+      <c r="AA48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>58495.938428087982</v>
       </c>
-      <c r="AB48" s="59">
+      <c r="AB48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>60714.91085194586</v>
       </c>
-      <c r="AC48" s="59">
+      <c r="AC48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>62951.75048984772</v>
       </c>
-      <c r="AD48" s="59">
+      <c r="AD48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>65214.13429103214</v>
       </c>
-      <c r="AE48" s="59">
+      <c r="AE48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>67503.217563451777</v>
       </c>
-      <c r="AF48" s="59">
+      <c r="AF48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>69820.192469543137</v>
       </c>
-      <c r="AG48" s="59">
+      <c r="AG48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>72161.141217428085</v>
       </c>
-      <c r="AH48" s="59">
+      <c r="AH48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>74530.488748730961</v>
       </c>
-      <c r="AI48" s="59">
+      <c r="AI48" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>76924.06650084602</v>
       </c>
@@ -32984,131 +32984,131 @@
       <c r="C63" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="59">
+      <c r="D63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="E63" s="59">
+      <c r="E63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="F63" s="59">
+      <c r="F63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="H63" s="59">
+      <c r="H63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="I63" s="59">
+      <c r="I63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="J63" s="59">
+      <c r="J63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="K63" s="59">
+      <c r="K63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="L63" s="59">
+      <c r="L63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="M63" s="59">
+      <c r="M63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="N63" s="59">
+      <c r="N63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="O63" s="59">
+      <c r="O63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="P63" s="59">
+      <c r="P63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="59">
+      <c r="Q63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="R63" s="59">
+      <c r="R63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="S63" s="59">
+      <c r="S63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.976311336717428E-4</v>
       </c>
-      <c r="T63" s="59">
+      <c r="T63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9.9407783417935699E-4</v>
       </c>
-      <c r="U63" s="59">
+      <c r="U63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.1869712351945854E-3</v>
       </c>
-      <c r="V63" s="59">
+      <c r="V63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4.3739424703891708E-3</v>
       </c>
-      <c r="W63" s="59">
+      <c r="W63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8.5490693739424702E-3</v>
       </c>
-      <c r="X63" s="59">
+      <c r="X63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>1.6104060913705583E-2</v>
       </c>
-      <c r="Y63" s="59">
+      <c r="Y63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0021150592216585E-2</v>
       </c>
-      <c r="Z63" s="59">
+      <c r="Z63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5.5469543147208124E-2</v>
       </c>
-      <c r="AA63" s="59">
+      <c r="AA63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8.091793570219967E-2</v>
       </c>
-      <c r="AB63" s="59">
+      <c r="AB63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.10656514382402707</v>
       </c>
-      <c r="AC63" s="59">
+      <c r="AC63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.13241116751269036</v>
       </c>
-      <c r="AD63" s="59">
+      <c r="AD63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.15845600676818949</v>
       </c>
-      <c r="AE63" s="59">
+      <c r="AE63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.18489847715736041</v>
       </c>
-      <c r="AF63" s="59">
+      <c r="AF63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.21153976311336717</v>
       </c>
-      <c r="AG63" s="59">
+      <c r="AG63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.23798223350253803</v>
       </c>
-      <c r="AH63" s="59">
+      <c r="AH63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.26462351945854484</v>
       </c>
-      <c r="AI63" s="59">
+      <c r="AI63" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.29146362098138745</v>
       </c>
@@ -33322,131 +33322,131 @@
       <c r="C66" t="s">
         <v>302</v>
       </c>
-      <c r="D66" s="59">
+      <c r="D66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="E66" s="59">
+      <c r="E66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="F66" s="59">
+      <c r="F66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="H66" s="59">
+      <c r="H66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="I66" s="59">
+      <c r="I66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="J66" s="59">
+      <c r="J66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="K66" s="59">
+      <c r="K66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="L66" s="59">
+      <c r="L66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="M66" s="59">
+      <c r="M66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="N66" s="59">
+      <c r="N66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="O66" s="59">
+      <c r="O66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="P66" s="59">
+      <c r="P66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="Q66" s="59">
+      <c r="Q66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="R66" s="59">
+      <c r="R66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7995219966159053</v>
       </c>
-      <c r="S66" s="59">
+      <c r="S66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8001184433164128</v>
       </c>
-      <c r="T66" s="59">
+      <c r="T66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8013113367174278</v>
       </c>
-      <c r="U66" s="59">
+      <c r="U66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8036971235194583</v>
       </c>
-      <c r="V66" s="59">
+      <c r="V66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8080710659898473</v>
       </c>
-      <c r="W66" s="59">
+      <c r="W66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8164213197969543</v>
       </c>
-      <c r="X66" s="59">
+      <c r="X66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8315313028764804</v>
       </c>
-      <c r="Y66" s="59">
+      <c r="Y66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8593654822335028</v>
       </c>
-      <c r="Z66" s="59">
+      <c r="Z66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.9100634517766499</v>
       </c>
-      <c r="AA66" s="59">
+      <c r="AA66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.960960236886633</v>
       </c>
-      <c r="AB66" s="59">
+      <c r="AB66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0122546531302876</v>
       </c>
-      <c r="AC66" s="59">
+      <c r="AC66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0641455160744502</v>
       </c>
-      <c r="AD66" s="59">
+      <c r="AD66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.1164340101522843</v>
       </c>
-      <c r="AE66" s="59">
+      <c r="AE66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.1691201353637899</v>
       </c>
-      <c r="AF66" s="59">
+      <c r="AF66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.2222038917089679</v>
       </c>
-      <c r="AG66" s="59">
+      <c r="AG66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.2754864636209815</v>
       </c>
-      <c r="AH66" s="59">
+      <c r="AH66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.3287690355329951</v>
       </c>
-      <c r="AI66" s="59">
+      <c r="AI66" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.3822504230118442</v>
       </c>
@@ -33458,131 +33458,131 @@
       <c r="C67" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="59">
+      <c r="D67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3056.0288705583753</v>
       </c>
-      <c r="E67" s="59">
+      <c r="E67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3536.8247546531297</v>
       </c>
-      <c r="F67" s="59">
+      <c r="F67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4010.9613113367177</v>
       </c>
-      <c r="G67" s="59">
+      <c r="G67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4472.2585575296107</v>
       </c>
-      <c r="H67" s="59">
+      <c r="H67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4934.1643781725888</v>
       </c>
-      <c r="I67" s="59">
+      <c r="I67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5397.4674746192886</v>
       </c>
-      <c r="J67" s="59">
+      <c r="J67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5863.4384771573605</v>
       </c>
-      <c r="K67" s="59">
+      <c r="K67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>6333.6838155668356</v>
       </c>
-      <c r="L67" s="59">
+      <c r="L67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>6807.876040609136</v>
       </c>
-      <c r="M67" s="59">
+      <c r="M67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>7286.5559306260575</v>
       </c>
-      <c r="N67" s="59">
+      <c r="N67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>7770.5408164128594</v>
       </c>
-      <c r="O67" s="59">
+      <c r="O67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8261.9379441624369</v>
       </c>
-      <c r="P67" s="59">
+      <c r="P67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8759.0959517766496</v>
       </c>
-      <c r="Q67" s="59">
+      <c r="Q67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9260.1127707275791</v>
       </c>
-      <c r="R67" s="59">
+      <c r="R67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9765.6126818950943</v>
       </c>
-      <c r="S67" s="59">
+      <c r="S67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>10276.234082064298</v>
       </c>
-      <c r="T67" s="59">
+      <c r="T67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>10790.73497038917</v>
       </c>
-      <c r="U67" s="59">
+      <c r="U67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>11308.239763113366</v>
       </c>
-      <c r="V67" s="59">
+      <c r="V67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>11830.795067681896</v>
       </c>
-      <c r="W67" s="59">
+      <c r="W67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>12358.430905245346</v>
       </c>
-      <c r="X67" s="59">
+      <c r="X67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>12890.328354483927</v>
       </c>
-      <c r="Y67" s="59">
+      <c r="Y67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>13428.24633671743</v>
       </c>
-      <c r="Z67" s="59">
+      <c r="Z67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>13969.696873942468</v>
       </c>
-      <c r="AA67" s="59">
+      <c r="AA67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>14515.887571912013</v>
       </c>
-      <c r="AB67" s="59">
+      <c r="AB67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>15066.530148054146</v>
       </c>
-      <c r="AC67" s="59">
+      <c r="AC67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>15621.606510152285</v>
       </c>
-      <c r="AD67" s="59">
+      <c r="AD67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>16183.021708967848</v>
       </c>
-      <c r="AE67" s="59">
+      <c r="AE67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>16751.062436548222</v>
       </c>
-      <c r="AF67" s="59">
+      <c r="AF67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>17326.024530456849</v>
       </c>
-      <c r="AG67" s="59">
+      <c r="AG67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>17906.935782571913</v>
       </c>
-      <c r="AH67" s="59">
+      <c r="AH67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>18494.894251269034</v>
       </c>
-      <c r="AI67" s="59">
+      <c r="AI67" s="52">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>19088.865499153977</v>
       </c>
@@ -34632,13 +34632,13 @@
       <c r="AI78" s="33"/>
     </row>
     <row r="79" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="50" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="57"/>
-      <c r="B80" s="60" t="s">
+      <c r="A80" s="50"/>
+      <c r="B80" s="53" t="s">
         <v>476</v>
       </c>
     </row>
@@ -34856,131 +34856,131 @@
       <c r="C84" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="59">
+      <c r="D84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1446.7339999999999</v>
       </c>
-      <c r="E84" s="59">
+      <c r="E84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1484.5070000000001</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1516.1119999999999</v>
       </c>
-      <c r="G84" s="59">
+      <c r="G84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1543.374</v>
       </c>
-      <c r="H84" s="59">
+      <c r="H84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1566.0130000000001</v>
       </c>
-      <c r="I84" s="59">
+      <c r="I84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1587.5609999999999</v>
       </c>
-      <c r="J84" s="59">
+      <c r="J84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1609.2070000000001</v>
       </c>
-      <c r="K84" s="59">
+      <c r="K84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1631.2270000000001</v>
       </c>
-      <c r="L84" s="59">
+      <c r="L84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1649.2750000000001</v>
       </c>
-      <c r="M84" s="59">
+      <c r="M84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1664.576</v>
       </c>
-      <c r="N84" s="59">
+      <c r="N84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1679.97</v>
       </c>
-      <c r="O84" s="59">
+      <c r="O84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1696.6769999999999</v>
       </c>
-      <c r="P84" s="59">
+      <c r="P84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1713.018</v>
       </c>
-      <c r="Q84" s="59">
+      <c r="Q84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1728.432</v>
       </c>
-      <c r="R84" s="59">
+      <c r="R84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1746.9889999999998</v>
       </c>
-      <c r="S84" s="59">
+      <c r="S84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1762.7049999999999</v>
       </c>
-      <c r="T84" s="59">
+      <c r="T84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1777.2280000000001</v>
       </c>
-      <c r="U84" s="59">
+      <c r="U84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1792.2149999999999</v>
       </c>
-      <c r="V84" s="59">
+      <c r="V84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1806.163</v>
       </c>
-      <c r="W84" s="59">
+      <c r="W84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1823.97</v>
       </c>
-      <c r="X84" s="59">
+      <c r="X84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1838.6489999999999</v>
       </c>
-      <c r="Y84" s="59">
+      <c r="Y84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1852.5650000000001</v>
       </c>
-      <c r="Z84" s="59">
+      <c r="Z84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1869.0219999999999</v>
       </c>
-      <c r="AA84" s="59">
+      <c r="AA84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1887.94</v>
       </c>
-      <c r="AB84" s="59">
+      <c r="AB84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1902.329</v>
       </c>
-      <c r="AC84" s="59">
+      <c r="AC84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1920.0330000000001</v>
       </c>
-      <c r="AD84" s="59">
+      <c r="AD84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1934.68</v>
       </c>
-      <c r="AE84" s="59">
+      <c r="AE84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1949.327</v>
       </c>
-      <c r="AF84" s="59">
+      <c r="AF84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1965.328</v>
       </c>
-      <c r="AG84" s="59">
+      <c r="AG84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1980.2090000000001</v>
       </c>
-      <c r="AH84" s="59">
+      <c r="AH84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1995.049</v>
       </c>
-      <c r="AI84" s="59">
+      <c r="AI84" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>2009.9290000000001</v>
       </c>
@@ -35194,131 +35194,131 @@
       <c r="C87" t="s">
         <v>302</v>
       </c>
-      <c r="D87" s="59">
+      <c r="D87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>554.88099999999997</v>
       </c>
-      <c r="E87" s="59">
+      <c r="E87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>554.95799999999997</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.65600000000006</v>
       </c>
-      <c r="G87" s="59">
+      <c r="G87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.81999999999994</v>
       </c>
-      <c r="H87" s="59">
+      <c r="H87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.92899999999997</v>
       </c>
-      <c r="I87" s="59">
+      <c r="I87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>556.55500000000006</v>
       </c>
-      <c r="J87" s="59">
+      <c r="J87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>557.75400000000002</v>
       </c>
-      <c r="K87" s="59">
+      <c r="K87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>560.31399999999996</v>
       </c>
-      <c r="L87" s="59">
+      <c r="L87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.67999999999995</v>
       </c>
-      <c r="M87" s="59">
+      <c r="M87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.71699999999998</v>
       </c>
-      <c r="N87" s="59">
+      <c r="N87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.75400000000002</v>
       </c>
-      <c r="O87" s="59">
+      <c r="O87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>563.81200000000001</v>
       </c>
-      <c r="P87" s="59">
+      <c r="P87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>563.88300000000004</v>
       </c>
-      <c r="Q87" s="59">
+      <c r="Q87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>564.06500000000005</v>
       </c>
-      <c r="R87" s="59">
+      <c r="R87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>564.97199999999998</v>
       </c>
-      <c r="S87" s="59">
+      <c r="S87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.44899999999996</v>
       </c>
-      <c r="T87" s="59">
+      <c r="T87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.44899999999996</v>
       </c>
-      <c r="U87" s="59">
+      <c r="U87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.53899999999999</v>
       </c>
-      <c r="V87" s="59">
+      <c r="V87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.53899999999999</v>
       </c>
-      <c r="W87" s="59">
+      <c r="W87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>566.95600000000002</v>
       </c>
-      <c r="X87" s="59">
+      <c r="X87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>568.21500000000003</v>
       </c>
-      <c r="Y87" s="59">
+      <c r="Y87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>568.21500000000003</v>
       </c>
-      <c r="Z87" s="59">
+      <c r="Z87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>569.98899999999992</v>
       </c>
-      <c r="AA87" s="59">
+      <c r="AA87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.30799999999999</v>
       </c>
-      <c r="AB87" s="59">
+      <c r="AB87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.30799999999999</v>
       </c>
-      <c r="AC87" s="59">
+      <c r="AC87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.44100000000003</v>
       </c>
-      <c r="AD87" s="59">
+      <c r="AD87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.476</v>
       </c>
-      <c r="AE87" s="59">
+      <c r="AE87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.56799999999998</v>
       </c>
-      <c r="AF87" s="59">
+      <c r="AF87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AG87" s="59">
+      <c r="AG87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AH87" s="59">
+      <c r="AH87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AI87" s="59">
+      <c r="AI87" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
@@ -35330,131 +35330,131 @@
       <c r="C88" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="59">
+      <c r="D88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>14908.906999999999</v>
       </c>
-      <c r="E88" s="59">
+      <c r="E88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>17741.758000000002</v>
       </c>
-      <c r="F88" s="59">
+      <c r="F88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>20580.715</v>
       </c>
-      <c r="G88" s="59">
+      <c r="G88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>22638.566999999999</v>
       </c>
-      <c r="H88" s="59">
+      <c r="H88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>23769.950999999997</v>
       </c>
-      <c r="I88" s="59">
+      <c r="I88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>24422.661</v>
       </c>
-      <c r="J88" s="59">
+      <c r="J88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>25725.832000000002</v>
       </c>
-      <c r="K88" s="59">
+      <c r="K88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>27033.278999999999</v>
       </c>
-      <c r="L88" s="59">
+      <c r="L88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>28281.987999999998</v>
       </c>
-      <c r="M88" s="59">
+      <c r="M88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>29205.769</v>
       </c>
-      <c r="N88" s="59">
+      <c r="N88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>30168.117999999999</v>
       </c>
-      <c r="O88" s="59">
+      <c r="O88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>31389.24</v>
       </c>
-      <c r="P88" s="59">
+      <c r="P88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>31883.095000000001</v>
       </c>
-      <c r="Q88" s="59">
+      <c r="Q88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>32279.797000000002</v>
       </c>
-      <c r="R88" s="59">
+      <c r="R88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>32968.890999999996</v>
       </c>
-      <c r="S88" s="59">
+      <c r="S88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>33678.925000000003</v>
       </c>
-      <c r="T88" s="59">
+      <c r="T88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>34006.583999999995</v>
       </c>
-      <c r="U88" s="59">
+      <c r="U88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>34825.133999999998</v>
       </c>
-      <c r="V88" s="59">
+      <c r="V88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>35221.156999999999</v>
       </c>
-      <c r="W88" s="59">
+      <c r="W88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36007.449999999997</v>
       </c>
-      <c r="X88" s="59">
+      <c r="X88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36477.673000000003</v>
       </c>
-      <c r="Y88" s="59">
+      <c r="Y88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36843.764999999999</v>
       </c>
-      <c r="Z88" s="59">
+      <c r="Z88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>37346.618999999999</v>
       </c>
-      <c r="AA88" s="59">
+      <c r="AA88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>37853.18</v>
       </c>
-      <c r="AB88" s="59">
+      <c r="AB88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>38311.203000000001</v>
       </c>
-      <c r="AC88" s="59">
+      <c r="AC88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>38971.263999999996</v>
       </c>
-      <c r="AD88" s="59">
+      <c r="AD88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>39456.504999999997</v>
       </c>
-      <c r="AE88" s="59">
+      <c r="AE88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>40213.673000000003</v>
       </c>
-      <c r="AF88" s="59">
+      <c r="AF88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>40861.724999999999</v>
       </c>
-      <c r="AG88" s="59">
+      <c r="AG88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>41413.314999999995</v>
       </c>
-      <c r="AH88" s="59">
+      <c r="AH88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>41787.891000000003</v>
       </c>
-      <c r="AI88" s="59">
+      <c r="AI88" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>42371.319000000003</v>
       </c>
@@ -35769,131 +35769,131 @@
       <c r="C92" t="s">
         <v>229</v>
       </c>
-      <c r="D92" s="59">
+      <c r="D92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="E92" s="59">
+      <c r="E92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="F92" s="59">
+      <c r="F92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="G92" s="59">
+      <c r="G92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="H92" s="59">
+      <c r="H92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="I92" s="59">
+      <c r="I92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="J92" s="59">
+      <c r="J92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="K92" s="59">
+      <c r="K92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="L92" s="59">
+      <c r="L92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="M92" s="59">
+      <c r="M92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="N92" s="59">
+      <c r="N92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="O92" s="59">
+      <c r="O92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="P92" s="59">
+      <c r="P92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Q92" s="59">
+      <c r="Q92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="R92" s="59">
+      <c r="R92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="S92" s="59">
+      <c r="S92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="T92" s="59">
+      <c r="T92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="U92" s="59">
+      <c r="U92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="V92" s="59">
+      <c r="V92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="W92" s="59">
+      <c r="W92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="X92" s="59">
+      <c r="X92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Y92" s="59">
+      <c r="Y92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Z92" s="59">
+      <c r="Z92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AA92" s="59">
+      <c r="AA92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AB92" s="59">
+      <c r="AB92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AC92" s="59">
+      <c r="AC92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AD92" s="59">
+      <c r="AD92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AE92" s="59">
+      <c r="AE92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AF92" s="59">
+      <c r="AF92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AG92" s="59">
+      <c r="AG92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AH92" s="59">
+      <c r="AH92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AI92" s="59">
+      <c r="AI92" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
@@ -36539,7 +36539,7 @@
       <c r="AI99" s="33"/>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="53" t="s">
         <v>475</v>
       </c>
     </row>
@@ -36757,131 +36757,131 @@
       <c r="C104" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="59">
+      <c r="D104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10090967</v>
       </c>
-      <c r="E104" s="59">
+      <c r="E104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10354434</v>
       </c>
-      <c r="F104" s="59">
+      <c r="F104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10574880</v>
       </c>
-      <c r="G104" s="59">
+      <c r="G104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10765036</v>
       </c>
-      <c r="H104" s="59">
+      <c r="H104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10922941</v>
       </c>
-      <c r="I104" s="59">
+      <c r="I104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11073236</v>
       </c>
-      <c r="J104" s="59">
+      <c r="J104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11224220</v>
       </c>
-      <c r="K104" s="59">
+      <c r="K104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11377805</v>
       </c>
-      <c r="L104" s="59">
+      <c r="L104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11503692</v>
       </c>
-      <c r="M104" s="59">
+      <c r="M104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11610416</v>
       </c>
-      <c r="N104" s="59">
+      <c r="N104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11717788</v>
       </c>
-      <c r="O104" s="59">
+      <c r="O104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11834324</v>
       </c>
-      <c r="P104" s="59">
+      <c r="P104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11948298</v>
       </c>
-      <c r="Q104" s="59">
+      <c r="Q104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12055812</v>
       </c>
-      <c r="R104" s="59">
+      <c r="R104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12185250</v>
       </c>
-      <c r="S104" s="59">
+      <c r="S104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12294869</v>
       </c>
-      <c r="T104" s="59">
+      <c r="T104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12396165</v>
       </c>
-      <c r="U104" s="59">
+      <c r="U104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12500697</v>
       </c>
-      <c r="V104" s="59">
+      <c r="V104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12597983</v>
       </c>
-      <c r="W104" s="59">
+      <c r="W104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12722192</v>
       </c>
-      <c r="X104" s="59">
+      <c r="X104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12824580</v>
       </c>
-      <c r="Y104" s="59">
+      <c r="Y104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12921640</v>
       </c>
-      <c r="Z104" s="59">
+      <c r="Z104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13036425</v>
       </c>
-      <c r="AA104" s="59">
+      <c r="AA104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13168379</v>
       </c>
-      <c r="AB104" s="59">
+      <c r="AB104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13268743</v>
       </c>
-      <c r="AC104" s="59">
+      <c r="AC104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13392224</v>
       </c>
-      <c r="AD104" s="59">
+      <c r="AD104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13494390</v>
       </c>
-      <c r="AE104" s="59">
+      <c r="AE104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13596555</v>
       </c>
-      <c r="AF104" s="59">
+      <c r="AF104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13708164</v>
       </c>
-      <c r="AG104" s="59">
+      <c r="AG104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13811955</v>
       </c>
-      <c r="AH104" s="59">
+      <c r="AH104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13915467</v>
       </c>
-      <c r="AI104" s="59">
+      <c r="AI104" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>14019253</v>
       </c>
@@ -37095,131 +37095,131 @@
       <c r="C107" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="59">
+      <c r="D107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>755308</v>
       </c>
-      <c r="E107" s="59">
+      <c r="E107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>755411</v>
       </c>
-      <c r="F107" s="59">
+      <c r="F107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756583</v>
       </c>
-      <c r="G107" s="59">
+      <c r="G107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756810</v>
       </c>
-      <c r="H107" s="59">
+      <c r="H107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756943</v>
       </c>
-      <c r="I107" s="59">
+      <c r="I107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>757979</v>
       </c>
-      <c r="J107" s="59">
+      <c r="J107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>759913</v>
       </c>
-      <c r="K107" s="59">
+      <c r="K107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>764157</v>
       </c>
-      <c r="L107" s="59">
+      <c r="L107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768105</v>
       </c>
-      <c r="M107" s="59">
+      <c r="M107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768150</v>
       </c>
-      <c r="N107" s="59">
+      <c r="N107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768196</v>
       </c>
-      <c r="O107" s="59">
+      <c r="O107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>769939</v>
       </c>
-      <c r="P107" s="59">
+      <c r="P107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>770028</v>
       </c>
-      <c r="Q107" s="59">
+      <c r="Q107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>770326</v>
       </c>
-      <c r="R107" s="59">
+      <c r="R107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>771841</v>
       </c>
-      <c r="S107" s="59">
+      <c r="S107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772625</v>
       </c>
-      <c r="T107" s="59">
+      <c r="T107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772625</v>
       </c>
-      <c r="U107" s="59">
+      <c r="U107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772776</v>
       </c>
-      <c r="V107" s="59">
+      <c r="V107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772776</v>
       </c>
-      <c r="W107" s="59">
+      <c r="W107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>775156</v>
       </c>
-      <c r="X107" s="59">
+      <c r="X107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>777270</v>
       </c>
-      <c r="Y107" s="59">
+      <c r="Y107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>777270</v>
       </c>
-      <c r="Z107" s="59">
+      <c r="Z107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780248</v>
       </c>
-      <c r="AA107" s="59">
+      <c r="AA107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780775</v>
       </c>
-      <c r="AB107" s="59">
+      <c r="AB107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780775</v>
       </c>
-      <c r="AC107" s="59">
+      <c r="AC107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780999</v>
       </c>
-      <c r="AD107" s="59">
+      <c r="AD107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781058</v>
       </c>
-      <c r="AE107" s="59">
+      <c r="AE107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781196</v>
       </c>
-      <c r="AF107" s="59">
+      <c r="AF107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AG107" s="59">
+      <c r="AG107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AH107" s="59">
+      <c r="AH107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AI107" s="59">
+      <c r="AI107" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
@@ -37231,131 +37231,131 @@
       <c r="C108" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="59">
+      <c r="D108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>18837549</v>
       </c>
-      <c r="E108" s="59">
+      <c r="E108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>22416910</v>
       </c>
-      <c r="F108" s="59">
+      <c r="F108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>26004009</v>
       </c>
-      <c r="G108" s="59">
+      <c r="G108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>28604086</v>
       </c>
-      <c r="H108" s="59">
+      <c r="H108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>30033560</v>
       </c>
-      <c r="I108" s="59">
+      <c r="I108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>30867208</v>
       </c>
-      <c r="J108" s="59">
+      <c r="J108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>32540672</v>
       </c>
-      <c r="K108" s="59">
+      <c r="K108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>34201900</v>
       </c>
-      <c r="L108" s="59">
+      <c r="L108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>35773468</v>
       </c>
-      <c r="M108" s="59">
+      <c r="M108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>36975719</v>
       </c>
-      <c r="N108" s="59">
+      <c r="N108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>38260967</v>
       </c>
-      <c r="O108" s="59">
+      <c r="O108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>39836559</v>
       </c>
-      <c r="P108" s="59">
+      <c r="P108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>40503922</v>
       </c>
-      <c r="Q108" s="59">
+      <c r="Q108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>41027443</v>
       </c>
-      <c r="R108" s="59">
+      <c r="R108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>41899254</v>
       </c>
-      <c r="S108" s="59">
+      <c r="S108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>42818336</v>
       </c>
-      <c r="T108" s="59">
+      <c r="T108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>43256069</v>
       </c>
-      <c r="U108" s="59">
+      <c r="U108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>44295830</v>
       </c>
-      <c r="V108" s="59">
+      <c r="V108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>44822124</v>
       </c>
-      <c r="W108" s="59">
+      <c r="W108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>45788025</v>
       </c>
-      <c r="X108" s="59">
+      <c r="X108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>46380821</v>
       </c>
-      <c r="Y108" s="59">
+      <c r="Y108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>46859875</v>
       </c>
-      <c r="Z108" s="59">
+      <c r="Z108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>47491077</v>
       </c>
-      <c r="AA108" s="59">
+      <c r="AA108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>48106064</v>
       </c>
-      <c r="AB108" s="59">
+      <c r="AB108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>48723824</v>
       </c>
-      <c r="AC108" s="59">
+      <c r="AC108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>49537178</v>
       </c>
-      <c r="AD108" s="59">
+      <c r="AD108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>50152237</v>
       </c>
-      <c r="AE108" s="59">
+      <c r="AE108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>51137211</v>
       </c>
-      <c r="AF108" s="59">
+      <c r="AF108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>51955509</v>
       </c>
-      <c r="AG108" s="59">
+      <c r="AG108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>52667110</v>
       </c>
-      <c r="AH108" s="59">
+      <c r="AH108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>53170837</v>
       </c>
-      <c r="AI108" s="59">
+      <c r="AI108" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>53918415</v>
       </c>
@@ -37670,131 +37670,131 @@
       <c r="C112" t="s">
         <v>229</v>
       </c>
-      <c r="D112" s="59">
+      <c r="D112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="E112" s="59">
+      <c r="E112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="F112" s="59">
+      <c r="F112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="G112" s="59">
+      <c r="G112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="H112" s="59">
+      <c r="H112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="I112" s="59">
+      <c r="I112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="J112" s="59">
+      <c r="J112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="K112" s="59">
+      <c r="K112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="L112" s="59">
+      <c r="L112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="M112" s="59">
+      <c r="M112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="N112" s="59">
+      <c r="N112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="O112" s="59">
+      <c r="O112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="P112" s="59">
+      <c r="P112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Q112" s="59">
+      <c r="Q112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="R112" s="59">
+      <c r="R112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="S112" s="59">
+      <c r="S112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="T112" s="59">
+      <c r="T112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="U112" s="59">
+      <c r="U112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="V112" s="59">
+      <c r="V112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="W112" s="59">
+      <c r="W112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="X112" s="59">
+      <c r="X112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Y112" s="59">
+      <c r="Y112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Z112" s="59">
+      <c r="Z112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AA112" s="59">
+      <c r="AA112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AB112" s="59">
+      <c r="AB112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AC112" s="59">
+      <c r="AC112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AD112" s="59">
+      <c r="AD112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AE112" s="59">
+      <c r="AE112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AF112" s="59">
+      <c r="AF112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AG112" s="59">
+      <c r="AG112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AH112" s="59">
+      <c r="AH112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AI112" s="59">
+      <c r="AI112" s="52">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667D62F-F72E-4D50-8673-557E35074178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CCBC4-6F2D-42BC-8159-093F749043D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="15555" windowHeight="10200" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="105" windowWidth="18555" windowHeight="9885" tabRatio="814" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2509,10 +2509,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6">
       <alignment wrapText="1"/>
     </xf>
@@ -2534,6 +2530,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -2932,7 +2932,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.06640625" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15254,42 +15254,42 @@
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
-      <c r="P116" s="54"/>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="54"/>
-      <c r="S116" s="54"/>
-      <c r="T116" s="54"/>
-      <c r="U116" s="54"/>
-      <c r="V116" s="54"/>
-      <c r="W116" s="54"/>
-      <c r="X116" s="54"/>
-      <c r="Y116" s="54"/>
-      <c r="Z116" s="54"/>
-      <c r="AA116" s="54"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="54"/>
-      <c r="AD116" s="54"/>
-      <c r="AE116" s="54"/>
-      <c r="AF116" s="54"/>
-      <c r="AG116" s="54"/>
-      <c r="AH116" s="54"/>
-      <c r="AI116" s="54"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="50"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="50"/>
+      <c r="N116" s="50"/>
+      <c r="O116" s="50"/>
+      <c r="P116" s="50"/>
+      <c r="Q116" s="50"/>
+      <c r="R116" s="50"/>
+      <c r="S116" s="50"/>
+      <c r="T116" s="50"/>
+      <c r="U116" s="50"/>
+      <c r="V116" s="50"/>
+      <c r="W116" s="50"/>
+      <c r="X116" s="50"/>
+      <c r="Y116" s="50"/>
+      <c r="Z116" s="50"/>
+      <c r="AA116" s="50"/>
+      <c r="AB116" s="50"/>
+      <c r="AC116" s="50"/>
+      <c r="AD116" s="50"/>
+      <c r="AE116" s="50"/>
+      <c r="AF116" s="50"/>
+      <c r="AG116" s="50"/>
+      <c r="AH116" s="50"/>
+      <c r="AI116" s="50"/>
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="7" t="s">
@@ -22022,42 +22022,42 @@
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="54"/>
-      <c r="S102" s="54"/>
-      <c r="T102" s="54"/>
-      <c r="U102" s="54"/>
-      <c r="V102" s="54"/>
-      <c r="W102" s="54"/>
-      <c r="X102" s="54"/>
-      <c r="Y102" s="54"/>
-      <c r="Z102" s="54"/>
-      <c r="AA102" s="54"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="54"/>
-      <c r="AD102" s="54"/>
-      <c r="AE102" s="54"/>
-      <c r="AF102" s="54"/>
-      <c r="AG102" s="54"/>
-      <c r="AH102" s="54"/>
-      <c r="AI102" s="54"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="50"/>
+      <c r="P102" s="50"/>
+      <c r="Q102" s="50"/>
+      <c r="R102" s="50"/>
+      <c r="S102" s="50"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="50"/>
+      <c r="V102" s="50"/>
+      <c r="W102" s="50"/>
+      <c r="X102" s="50"/>
+      <c r="Y102" s="50"/>
+      <c r="Z102" s="50"/>
+      <c r="AA102" s="50"/>
+      <c r="AB102" s="50"/>
+      <c r="AC102" s="50"/>
+      <c r="AD102" s="50"/>
+      <c r="AE102" s="50"/>
+      <c r="AF102" s="50"/>
+      <c r="AG102" s="50"/>
+      <c r="AH102" s="50"/>
+      <c r="AI102" s="50"/>
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="7" t="s">
@@ -22138,37 +22138,37 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -27215,15 +27215,15 @@
       <c r="G224" s="29"/>
     </row>
     <row r="225" spans="1:7" s="22" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A225" s="60" t="s">
+      <c r="A225" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="B225" s="60"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="60"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="56"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
     </row>
     <row r="226" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226"/>
@@ -27260,8 +27260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA048DE0-AEAD-4096-B0F3-BDB0F419C9A6}">
   <dimension ref="A1:AI118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27273,13 +27273,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="50"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="60" t="s">
         <v>475</v>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       <c r="B3" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
@@ -27498,132 +27498,132 @@
       <c r="C6" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="D6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>0.80118443316412857</v>
       </c>
-      <c r="S6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="S6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>4.0059221658206434</v>
       </c>
-      <c r="T6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="T6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>11.2165820642978</v>
       </c>
-      <c r="U6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="U6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>24.035532994923859</v>
       </c>
-      <c r="V6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="V6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>48.872250423011842</v>
       </c>
-      <c r="W6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="W6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>95.340947546531297</v>
       </c>
-      <c r="X6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="X6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>180.26649746192894</v>
       </c>
-      <c r="Y6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Y6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>337.29864636209811</v>
       </c>
-      <c r="Z6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Z6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>622.52030456852799</v>
       </c>
-      <c r="AA6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AA6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>908.54314720812181</v>
       </c>
-      <c r="AB6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AB6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>1196.9695431472082</v>
       </c>
-      <c r="AC6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AC6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>1488.6006768189511</v>
       </c>
-      <c r="AD6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AD6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>1782.6353637901859</v>
       </c>
-      <c r="AE6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AE6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>2079.0736040609136</v>
       </c>
-      <c r="AF6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AF6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>2377.1142131979691</v>
       </c>
-      <c r="AG6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AG6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>2676.7571912013536</v>
       </c>
-      <c r="AH6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AH6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>2976.4001692047377</v>
       </c>
-      <c r="AI6" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AI6" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B6,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>3276.8443316412859</v>
       </c>
     </row>
@@ -27836,132 +27836,132 @@
       <c r="C9" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="D9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="E9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="E9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="F9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="F9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="G9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="G9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="H9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="H9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="I9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="I9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="J9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="J9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="K9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="K9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="L9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="L9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="M9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="M9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="N9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="N9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="O9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="O9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="P9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="P9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="Q9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Q9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14722.565143824027</v>
       </c>
-      <c r="R9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="R9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14723.366328257192</v>
       </c>
-      <c r="S9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="S9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14725.769881556684</v>
       </c>
-      <c r="T9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="T9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14730.576988155668</v>
       </c>
-      <c r="U9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="U9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14740.191201353638</v>
       </c>
-      <c r="V9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="V9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14758.618443316413</v>
       </c>
-      <c r="W9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="W9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14792.268189509306</v>
       </c>
-      <c r="X9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="X9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14854.760575296108</v>
       </c>
-      <c r="Y9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Y9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>14970.131133671743</v>
       </c>
-      <c r="Z9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Z9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>15180.041455160743</v>
       </c>
-      <c r="AA9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AA9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>15389.951776649747</v>
       </c>
-      <c r="AB9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AB9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>15601.464467005077</v>
       </c>
-      <c r="AC9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AC9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>15815.3807106599</v>
       </c>
-      <c r="AD9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AD9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>16030.899323181049</v>
       </c>
-      <c r="AE9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AE9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>16248.020304568528</v>
       </c>
-      <c r="AF9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AF9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>16465.942470389175</v>
       </c>
-      <c r="AG9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AG9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>16685.467005076145</v>
       </c>
-      <c r="AH9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AH9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>16904.190355329949</v>
       </c>
-      <c r="AI9" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AI9" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B9,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>17124.516074450083</v>
       </c>
     </row>
@@ -27972,132 +27972,132 @@
       <c r="C10" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="D10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>17461559.94416244</v>
       </c>
-      <c r="E10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="E10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>19973253.112521149</v>
       </c>
-      <c r="F10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="F10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>22441871.401015226</v>
       </c>
-      <c r="G10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="G10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>24825707.551607445</v>
       </c>
-      <c r="H10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="H10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>27213173.868866324</v>
       </c>
-      <c r="I10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="I10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>29609795.320642978</v>
       </c>
-      <c r="J10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="J10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>32023935.47123519</v>
       </c>
-      <c r="K10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="K10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>34465783.784263954</v>
       </c>
-      <c r="L10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="L10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>36933488.722504228</v>
       </c>
-      <c r="M10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="M10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>39430633.983925544</v>
       </c>
-      <c r="N10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="N10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>41962649.195431471</v>
       </c>
-      <c r="O10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="O10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>44543176.124365479</v>
       </c>
-      <c r="P10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="P10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>47161258.573604062</v>
       </c>
-      <c r="Q10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Q10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>49804714.533840947</v>
       </c>
-      <c r="R10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="R10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>52477610.817258887</v>
       </c>
-      <c r="S10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="S10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>55184090.348561756</v>
       </c>
-      <c r="T10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="T10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>57916351.99492386</v>
       </c>
-      <c r="U10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="U10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>60668779.453468695</v>
       </c>
-      <c r="V10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="V10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>63454623.513536379</v>
       </c>
-      <c r="W10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="W10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>66274166.993231803</v>
       </c>
-      <c r="X10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="X10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>69122138.900169209</v>
       </c>
-      <c r="Y10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Y10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>72010081.898477152</v>
       </c>
-      <c r="Z10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="Z10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>74921691.884940788</v>
       </c>
-      <c r="AA10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AA10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>77864574.503384098</v>
       </c>
-      <c r="AB10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AB10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>80836991.98477158</v>
       </c>
-      <c r="AC10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AC10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>83838866.614213184</v>
       </c>
-      <c r="AD10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AD10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>86882648.797800347</v>
       </c>
-      <c r="AE10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AE10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>89970080.310490683</v>
       </c>
-      <c r="AF10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AF10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>93103099.217428088</v>
       </c>
-      <c r="AG10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AG10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>96275513.965313017</v>
       </c>
-      <c r="AH10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AH10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>99494371.772419631</v>
       </c>
-      <c r="AI10" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*Percent_Urban*billion_kw_to_MW</f>
+      <c r="AI10" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B10,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$4,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$25*About!$B$28</f>
         <v>102753040.43401015</v>
       </c>
     </row>
@@ -29325,132 +29325,132 @@
       <c r="C25" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="D25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>0.1988155668358714</v>
       </c>
-      <c r="S25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="S25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>0.99407783417935713</v>
       </c>
-      <c r="T25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="T25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>2.7834179357021993</v>
       </c>
-      <c r="U25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="U25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>5.9644670050761421</v>
       </c>
-      <c r="V25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="V25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>12.127749576988156</v>
       </c>
-      <c r="W25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="W25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>23.659052453468696</v>
       </c>
-      <c r="X25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="X25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>44.733502538071065</v>
       </c>
-      <c r="Y25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Y25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>83.70135363790186</v>
       </c>
-      <c r="Z25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Z25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>154.47969543147207</v>
       </c>
-      <c r="AA25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AA25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>225.45685279187816</v>
       </c>
-      <c r="AB25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AB25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>297.03045685279187</v>
       </c>
-      <c r="AC25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AC25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>369.39932318104906</v>
       </c>
-      <c r="AD25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AD25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>442.36463620981391</v>
       </c>
-      <c r="AE25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AE25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>515.92639593908632</v>
       </c>
-      <c r="AF25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AF25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>589.88578680203045</v>
       </c>
-      <c r="AG25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AG25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>664.24280879864637</v>
       </c>
-      <c r="AH25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AH25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>738.59983079526228</v>
       </c>
-      <c r="AI25" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AI25" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B25,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>813.15566835871402</v>
       </c>
     </row>
@@ -29663,132 +29663,132 @@
       <c r="C28" t="s">
         <v>302</v>
       </c>
-      <c r="D28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="D28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="E28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="E28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="F28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="F28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="G28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="G28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="H28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="H28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="I28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="I28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="J28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="J28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="K28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="K28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="L28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="L28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="M28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="M28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="N28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="N28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="O28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="O28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="P28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="P28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="Q28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Q28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.4348561759725</v>
       </c>
-      <c r="R28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="R28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3653.6336717428089</v>
       </c>
-      <c r="S28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="S28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3654.2301184433163</v>
       </c>
-      <c r="T28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="T28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3655.4230118443315</v>
       </c>
-      <c r="U28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="U28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3657.8087986463624</v>
       </c>
-      <c r="V28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="V28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3662.381556683587</v>
       </c>
-      <c r="W28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="W28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3670.7318104906935</v>
       </c>
-      <c r="X28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="X28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3686.2394247038915</v>
       </c>
-      <c r="Y28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Y28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3714.8688663282569</v>
       </c>
-      <c r="Z28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Z28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3766.9585448392554</v>
       </c>
-      <c r="AA28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AA28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3819.0482233502539</v>
       </c>
-      <c r="AB28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AB28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3871.5355329949239</v>
       </c>
-      <c r="AC28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AC28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3924.6192893401012</v>
       </c>
-      <c r="AD28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AD28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>3978.1006768189509</v>
       </c>
-      <c r="AE28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AE28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4031.9796954314716</v>
       </c>
-      <c r="AF28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AF28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4086.0575296108291</v>
       </c>
-      <c r="AG28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AG28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4140.5329949238585</v>
       </c>
-      <c r="AH28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AH28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4194.8096446700511</v>
       </c>
-      <c r="AI28" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AI28" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B28,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4249.4839255499155</v>
       </c>
     </row>
@@ -29799,132 +29799,132 @@
       <c r="C29" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="D29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4333122.0558375632</v>
       </c>
-      <c r="E29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="E29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>4956403.8874788499</v>
       </c>
-      <c r="F29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="F29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>5568996.5989847714</v>
       </c>
-      <c r="G29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="G29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>6160550.4483925551</v>
       </c>
-      <c r="H29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="H29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>6753005.1311336709</v>
       </c>
-      <c r="I29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="I29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>7347731.679357022</v>
       </c>
-      <c r="J29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="J29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>7946805.5287648048</v>
       </c>
-      <c r="K29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="K29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>8552755.2157360408</v>
       </c>
-      <c r="L29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="L29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>9165121.2774957698</v>
       </c>
-      <c r="M29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="M29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>9784793.0160744488</v>
       </c>
-      <c r="N29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="N29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>10413117.804568529</v>
       </c>
-      <c r="O29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="O29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>11053480.875634518</v>
       </c>
-      <c r="P29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="P29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>11703163.42639594</v>
       </c>
-      <c r="Q29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Q29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>12359142.466159053</v>
       </c>
-      <c r="R29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="R29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>13022427.182741117</v>
       </c>
-      <c r="S29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="S29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>13694045.65143824</v>
       </c>
-      <c r="T29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="T29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>14372062.005076142</v>
       </c>
-      <c r="U29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="U29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>15055082.546531303</v>
       </c>
-      <c r="V29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="V29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>15746395.486463621</v>
       </c>
-      <c r="W29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="W29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>16446071.006768189</v>
       </c>
-      <c r="X29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="X29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>17152801.099830795</v>
       </c>
-      <c r="Y29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Y29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>17869450.101522841</v>
       </c>
-      <c r="Z29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="Z29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>18591972.115059219</v>
       </c>
-      <c r="AA29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AA29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>19322254.496615905</v>
       </c>
-      <c r="AB29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AB29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>20059866.015228424</v>
       </c>
-      <c r="AC29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AC29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>20804787.385786802</v>
       </c>
-      <c r="AD29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AD29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>21560108.20219966</v>
       </c>
-      <c r="AE29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AE29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>22326260.689509306</v>
       </c>
-      <c r="AF29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AF29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>23103725.782571912</v>
       </c>
-      <c r="AG29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AG29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>23890967.034686971</v>
       </c>
-      <c r="AH29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AH29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>24689733.227580372</v>
       </c>
-      <c r="AI29" s="52">
-        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*Percent_rural*billion_kw_to_MW</f>
+      <c r="AI29" s="59">
+        <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B29,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$23,'AEO Table 21'!$C$13:$AH$13,0))*About!$A$26*About!$B$28</f>
         <v>25498378.565989845</v>
       </c>
     </row>
@@ -30939,7 +30939,7 @@
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="60" t="s">
         <v>476</v>
       </c>
     </row>
@@ -31157,131 +31157,131 @@
       <c r="C44" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="G44" s="52">
+      <c r="G44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="H44" s="52">
+      <c r="H44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="M44" s="52">
+      <c r="M44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="N44" s="52">
+      <c r="N44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="O44" s="52">
+      <c r="O44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="P44" s="52">
+      <c r="P44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="52">
+      <c r="Q44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="R44" s="52">
+      <c r="R44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0</v>
       </c>
-      <c r="S44" s="52">
+      <c r="S44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.6023688663282572E-3</v>
       </c>
-      <c r="T44" s="52">
+      <c r="T44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>4.0059221658206431E-3</v>
       </c>
-      <c r="U44" s="52">
+      <c r="U44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>8.813028764805414E-3</v>
       </c>
-      <c r="V44" s="52">
+      <c r="V44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.7626057529610828E-2</v>
       </c>
-      <c r="W44" s="52">
+      <c r="W44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>3.445093062605753E-2</v>
       </c>
-      <c r="X44" s="52">
+      <c r="X44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>6.4895939086294416E-2</v>
       </c>
-      <c r="Y44" s="52">
+      <c r="Y44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.12097884940778343</v>
       </c>
-      <c r="Z44" s="52">
+      <c r="Z44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.22353045685279188</v>
       </c>
-      <c r="AA44" s="52">
+      <c r="AA44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.32608206429780034</v>
       </c>
-      <c r="AB44" s="52">
+      <c r="AB44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.42943485617597293</v>
       </c>
-      <c r="AC44" s="52">
+      <c r="AC44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.53358883248730971</v>
       </c>
-      <c r="AD44" s="52">
+      <c r="AD44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.63854399323181044</v>
       </c>
-      <c r="AE44" s="52">
+      <c r="AE44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.74510152284263964</v>
       </c>
-      <c r="AF44" s="52">
+      <c r="AF44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.85246023688663286</v>
       </c>
-      <c r="AG44" s="52">
+      <c r="AG44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>0.95901776649746173</v>
       </c>
-      <c r="AH44" s="52">
+      <c r="AH44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.0663764805414551</v>
       </c>
-      <c r="AI44" s="52">
+      <c r="AI44" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B44,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>1.1745363790186125</v>
       </c>
@@ -31495,131 +31495,131 @@
       <c r="C47" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="M47" s="52">
+      <c r="M47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="N47" s="52">
+      <c r="N47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="O47" s="52">
+      <c r="O47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="P47" s="52">
+      <c r="P47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="Q47" s="52">
+      <c r="Q47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.28067681895093</v>
       </c>
-      <c r="R47" s="52">
+      <c r="R47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.281478003384095</v>
       </c>
-      <c r="S47" s="52">
+      <c r="S47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.283881556683587</v>
       </c>
-      <c r="T47" s="52">
+      <c r="T47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.288688663282571</v>
       </c>
-      <c r="U47" s="52">
+      <c r="U47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.298302876480541</v>
       </c>
-      <c r="V47" s="52">
+      <c r="V47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.315928934010151</v>
       </c>
-      <c r="W47" s="52">
+      <c r="W47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.349578680203045</v>
       </c>
-      <c r="X47" s="52">
+      <c r="X47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.410468697123518</v>
       </c>
-      <c r="Y47" s="52">
+      <c r="Y47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.522634517766498</v>
       </c>
-      <c r="Z47" s="52">
+      <c r="Z47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.72693654822335</v>
       </c>
-      <c r="AA47" s="52">
+      <c r="AA47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>11.932039763113368</v>
       </c>
-      <c r="AB47" s="52">
+      <c r="AB47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.138745346869712</v>
       </c>
-      <c r="AC47" s="52">
+      <c r="AC47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.34785448392555</v>
       </c>
-      <c r="AD47" s="52">
+      <c r="AD47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.558565989847716</v>
       </c>
-      <c r="AE47" s="52">
+      <c r="AE47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.770879864636209</v>
       </c>
-      <c r="AF47" s="52">
+      <c r="AF47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12.984796108291032</v>
       </c>
-      <c r="AG47" s="52">
+      <c r="AG47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.199513536379019</v>
       </c>
-      <c r="AH47" s="52">
+      <c r="AH47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.414230964467006</v>
       </c>
-      <c r="AI47" s="52">
+      <c r="AI47" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B47,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>13.629749576988155</v>
       </c>
@@ -31631,131 +31631,131 @@
       <c r="C48" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>12315.146129441624</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>14252.651245346868</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>16163.320688663285</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>18022.250442470391</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>19883.632621827408</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>21750.645525380707</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>23628.409522842641</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>25523.398184433161</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>27434.291959390859</v>
       </c>
-      <c r="M48" s="52">
+      <c r="M48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>29363.270069373943</v>
       </c>
-      <c r="N48" s="52">
+      <c r="N48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>31313.626183587141</v>
       </c>
-      <c r="O48" s="52">
+      <c r="O48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>33293.85205583756</v>
       </c>
-      <c r="P48" s="52">
+      <c r="P48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>35297.29304822335</v>
       </c>
-      <c r="Q48" s="52">
+      <c r="Q48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>37316.284229272416</v>
       </c>
-      <c r="R48" s="52">
+      <c r="R48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>39353.341318104911</v>
       </c>
-      <c r="S48" s="52">
+      <c r="S48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>41411.0369179357</v>
       </c>
-      <c r="T48" s="52">
+      <c r="T48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>43484.366029610828</v>
       </c>
-      <c r="U48" s="52">
+      <c r="U48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>45569.800236886629</v>
       </c>
-      <c r="V48" s="52">
+      <c r="V48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>47675.58693231811</v>
       </c>
-      <c r="W48" s="52">
+      <c r="W48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>49801.847094754652</v>
       </c>
-      <c r="X48" s="52">
+      <c r="X48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>51945.280645516075</v>
       </c>
-      <c r="Y48" s="52">
+      <c r="Y48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>54112.975663282581</v>
       </c>
-      <c r="Z48" s="52">
+      <c r="Z48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>56294.906126057518</v>
       </c>
-      <c r="AA48" s="52">
+      <c r="AA48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>58495.938428087982</v>
       </c>
-      <c r="AB48" s="52">
+      <c r="AB48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>60714.91085194586</v>
       </c>
-      <c r="AC48" s="52">
+      <c r="AC48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>62951.75048984772</v>
       </c>
-      <c r="AD48" s="52">
+      <c r="AD48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>65214.13429103214</v>
       </c>
-      <c r="AE48" s="52">
+      <c r="AE48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>67503.217563451777</v>
       </c>
-      <c r="AF48" s="52">
+      <c r="AF48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>69820.192469543137</v>
       </c>
-      <c r="AG48" s="52">
+      <c r="AG48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>72161.141217428085</v>
       </c>
-      <c r="AH48" s="52">
+      <c r="AH48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>74530.488748730961</v>
       </c>
-      <c r="AI48" s="52">
+      <c r="AI48" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B48,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$42,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_Urban</f>
         <v>76924.06650084602</v>
       </c>
@@ -32984,131 +32984,131 @@
       <c r="C63" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="G63" s="52">
+      <c r="G63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="H63" s="52">
+      <c r="H63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="M63" s="52">
+      <c r="M63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="N63" s="52">
+      <c r="N63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="O63" s="52">
+      <c r="O63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="P63" s="52">
+      <c r="P63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="52">
+      <c r="Q63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="R63" s="52">
+      <c r="R63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0</v>
       </c>
-      <c r="S63" s="52">
+      <c r="S63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.976311336717428E-4</v>
       </c>
-      <c r="T63" s="52">
+      <c r="T63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9.9407783417935699E-4</v>
       </c>
-      <c r="U63" s="52">
+      <c r="U63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.1869712351945854E-3</v>
       </c>
-      <c r="V63" s="52">
+      <c r="V63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4.3739424703891708E-3</v>
       </c>
-      <c r="W63" s="52">
+      <c r="W63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8.5490693739424702E-3</v>
       </c>
-      <c r="X63" s="52">
+      <c r="X63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>1.6104060913705583E-2</v>
       </c>
-      <c r="Y63" s="52">
+      <c r="Y63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0021150592216585E-2</v>
       </c>
-      <c r="Z63" s="52">
+      <c r="Z63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5.5469543147208124E-2</v>
       </c>
-      <c r="AA63" s="52">
+      <c r="AA63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8.091793570219967E-2</v>
       </c>
-      <c r="AB63" s="52">
+      <c r="AB63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.10656514382402707</v>
       </c>
-      <c r="AC63" s="52">
+      <c r="AC63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.13241116751269036</v>
       </c>
-      <c r="AD63" s="52">
+      <c r="AD63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.15845600676818949</v>
       </c>
-      <c r="AE63" s="52">
+      <c r="AE63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.18489847715736041</v>
       </c>
-      <c r="AF63" s="52">
+      <c r="AF63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.21153976311336717</v>
       </c>
-      <c r="AG63" s="52">
+      <c r="AG63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.23798223350253803</v>
       </c>
-      <c r="AH63" s="52">
+      <c r="AH63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.26462351945854484</v>
       </c>
-      <c r="AI63" s="52">
+      <c r="AI63" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B63,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>0.29146362098138745</v>
       </c>
@@ -33322,131 +33322,131 @@
       <c r="C66" t="s">
         <v>302</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="F66" s="52">
+      <c r="F66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="G66" s="52">
+      <c r="G66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="H66" s="52">
+      <c r="H66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="J66" s="52">
+      <c r="J66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="K66" s="52">
+      <c r="K66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="L66" s="52">
+      <c r="L66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="M66" s="52">
+      <c r="M66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="N66" s="52">
+      <c r="N66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="O66" s="52">
+      <c r="O66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="P66" s="52">
+      <c r="P66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="Q66" s="52">
+      <c r="Q66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7993231810490693</v>
       </c>
-      <c r="R66" s="52">
+      <c r="R66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.7995219966159053</v>
       </c>
-      <c r="S66" s="52">
+      <c r="S66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8001184433164128</v>
       </c>
-      <c r="T66" s="52">
+      <c r="T66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8013113367174278</v>
       </c>
-      <c r="U66" s="52">
+      <c r="U66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8036971235194583</v>
       </c>
-      <c r="V66" s="52">
+      <c r="V66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8080710659898473</v>
       </c>
-      <c r="W66" s="52">
+      <c r="W66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8164213197969543</v>
       </c>
-      <c r="X66" s="52">
+      <c r="X66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8315313028764804</v>
       </c>
-      <c r="Y66" s="52">
+      <c r="Y66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.8593654822335028</v>
       </c>
-      <c r="Z66" s="52">
+      <c r="Z66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.9100634517766499</v>
       </c>
-      <c r="AA66" s="52">
+      <c r="AA66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>2.960960236886633</v>
       </c>
-      <c r="AB66" s="52">
+      <c r="AB66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0122546531302876</v>
       </c>
-      <c r="AC66" s="52">
+      <c r="AC66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.0641455160744502</v>
       </c>
-      <c r="AD66" s="52">
+      <c r="AD66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.1164340101522843</v>
       </c>
-      <c r="AE66" s="52">
+      <c r="AE66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.1691201353637899</v>
       </c>
-      <c r="AF66" s="52">
+      <c r="AF66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.2222038917089679</v>
       </c>
-      <c r="AG66" s="52">
+      <c r="AG66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.2754864636209815</v>
       </c>
-      <c r="AH66" s="52">
+      <c r="AH66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.3287690355329951</v>
       </c>
-      <c r="AI66" s="52">
+      <c r="AI66" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B66,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3.3822504230118442</v>
       </c>
@@ -33458,131 +33458,131 @@
       <c r="C67" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!D$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3056.0288705583753</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!E$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>3536.8247546531297</v>
       </c>
-      <c r="F67" s="52">
+      <c r="F67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!F$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4010.9613113367177</v>
       </c>
-      <c r="G67" s="52">
+      <c r="G67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!G$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4472.2585575296107</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!H$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>4934.1643781725888</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!I$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5397.4674746192886</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!J$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>5863.4384771573605</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!K$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>6333.6838155668356</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!L$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>6807.876040609136</v>
       </c>
-      <c r="M67" s="52">
+      <c r="M67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!M$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>7286.5559306260575</v>
       </c>
-      <c r="N67" s="52">
+      <c r="N67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!N$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>7770.5408164128594</v>
       </c>
-      <c r="O67" s="52">
+      <c r="O67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!O$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8261.9379441624369</v>
       </c>
-      <c r="P67" s="52">
+      <c r="P67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!P$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>8759.0959517766496</v>
       </c>
-      <c r="Q67" s="52">
+      <c r="Q67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Q$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9260.1127707275791</v>
       </c>
-      <c r="R67" s="52">
+      <c r="R67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!R$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>9765.6126818950943</v>
       </c>
-      <c r="S67" s="52">
+      <c r="S67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!S$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>10276.234082064298</v>
       </c>
-      <c r="T67" s="52">
+      <c r="T67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!T$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>10790.73497038917</v>
       </c>
-      <c r="U67" s="52">
+      <c r="U67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!U$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>11308.239763113366</v>
       </c>
-      <c r="V67" s="52">
+      <c r="V67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!V$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>11830.795067681896</v>
       </c>
-      <c r="W67" s="52">
+      <c r="W67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!W$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>12358.430905245346</v>
       </c>
-      <c r="X67" s="52">
+      <c r="X67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!X$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>12890.328354483927</v>
       </c>
-      <c r="Y67" s="52">
+      <c r="Y67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Y$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>13428.24633671743</v>
       </c>
-      <c r="Z67" s="52">
+      <c r="Z67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!Z$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>13969.696873942468</v>
       </c>
-      <c r="AA67" s="52">
+      <c r="AA67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AA$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>14515.887571912013</v>
       </c>
-      <c r="AB67" s="52">
+      <c r="AB67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AB$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>15066.530148054146</v>
       </c>
-      <c r="AC67" s="52">
+      <c r="AC67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AC$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>15621.606510152285</v>
       </c>
-      <c r="AD67" s="52">
+      <c r="AD67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AD$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>16183.021708967848</v>
       </c>
-      <c r="AE67" s="52">
+      <c r="AE67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AE$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>16751.062436548222</v>
       </c>
-      <c r="AF67" s="52">
+      <c r="AF67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AF$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>17326.024530456849</v>
       </c>
-      <c r="AG67" s="52">
+      <c r="AG67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AG$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>17906.935782571913</v>
       </c>
-      <c r="AH67" s="52">
+      <c r="AH67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AH$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>18494.894251269034</v>
       </c>
-      <c r="AI67" s="52">
+      <c r="AI67" s="59">
         <f>INDEX('AEO Table 21'!$C$98:$AH$106,MATCH(Calculations!$B67,'AEO Table 21'!$A$98:$A$106,0),MATCH(Calculations!AI$61,'AEO Table 21'!$C$13:$AH$13,0))*gigwatt_to_megawatt*Percent_rural</f>
         <v>19088.865499153977</v>
       </c>
@@ -34632,13 +34632,13 @@
       <c r="AI78" s="33"/>
     </row>
     <row r="79" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="57" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="50"/>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="57"/>
+      <c r="B80" s="60" t="s">
         <v>476</v>
       </c>
     </row>
@@ -34856,131 +34856,131 @@
       <c r="C84" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1446.7339999999999</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1484.5070000000001</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1516.1119999999999</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1543.374</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1566.0130000000001</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1587.5609999999999</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1609.2070000000001</v>
       </c>
-      <c r="K84" s="52">
+      <c r="K84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1631.2270000000001</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1649.2750000000001</v>
       </c>
-      <c r="M84" s="52">
+      <c r="M84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1664.576</v>
       </c>
-      <c r="N84" s="52">
+      <c r="N84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1679.97</v>
       </c>
-      <c r="O84" s="52">
+      <c r="O84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1696.6769999999999</v>
       </c>
-      <c r="P84" s="52">
+      <c r="P84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1713.018</v>
       </c>
-      <c r="Q84" s="52">
+      <c r="Q84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1728.432</v>
       </c>
-      <c r="R84" s="52">
+      <c r="R84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1746.9889999999998</v>
       </c>
-      <c r="S84" s="52">
+      <c r="S84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1762.7049999999999</v>
       </c>
-      <c r="T84" s="52">
+      <c r="T84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1777.2280000000001</v>
       </c>
-      <c r="U84" s="52">
+      <c r="U84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1792.2149999999999</v>
       </c>
-      <c r="V84" s="52">
+      <c r="V84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1806.163</v>
       </c>
-      <c r="W84" s="52">
+      <c r="W84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1823.97</v>
       </c>
-      <c r="X84" s="52">
+      <c r="X84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1838.6489999999999</v>
       </c>
-      <c r="Y84" s="52">
+      <c r="Y84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1852.5650000000001</v>
       </c>
-      <c r="Z84" s="52">
+      <c r="Z84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1869.0219999999999</v>
       </c>
-      <c r="AA84" s="52">
+      <c r="AA84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1887.94</v>
       </c>
-      <c r="AB84" s="52">
+      <c r="AB84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1902.329</v>
       </c>
-      <c r="AC84" s="52">
+      <c r="AC84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1920.0330000000001</v>
       </c>
-      <c r="AD84" s="52">
+      <c r="AD84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1934.68</v>
       </c>
-      <c r="AE84" s="52">
+      <c r="AE84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1949.327</v>
       </c>
-      <c r="AF84" s="52">
+      <c r="AF84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1965.328</v>
       </c>
-      <c r="AG84" s="52">
+      <c r="AG84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1980.2090000000001</v>
       </c>
-      <c r="AH84" s="52">
+      <c r="AH84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>1995.049</v>
       </c>
-      <c r="AI84" s="52">
+      <c r="AI84" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B84,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>2009.9290000000001</v>
       </c>
@@ -35194,131 +35194,131 @@
       <c r="C87" t="s">
         <v>302</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>554.88099999999997</v>
       </c>
-      <c r="E87" s="52">
+      <c r="E87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>554.95799999999997</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.65600000000006</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.81999999999994</v>
       </c>
-      <c r="H87" s="52">
+      <c r="H87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>555.92899999999997</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>556.55500000000006</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>557.75400000000002</v>
       </c>
-      <c r="K87" s="52">
+      <c r="K87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>560.31399999999996</v>
       </c>
-      <c r="L87" s="52">
+      <c r="L87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.67999999999995</v>
       </c>
-      <c r="M87" s="52">
+      <c r="M87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.71699999999998</v>
       </c>
-      <c r="N87" s="52">
+      <c r="N87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>562.75400000000002</v>
       </c>
-      <c r="O87" s="52">
+      <c r="O87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>563.81200000000001</v>
       </c>
-      <c r="P87" s="52">
+      <c r="P87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>563.88300000000004</v>
       </c>
-      <c r="Q87" s="52">
+      <c r="Q87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>564.06500000000005</v>
       </c>
-      <c r="R87" s="52">
+      <c r="R87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>564.97199999999998</v>
       </c>
-      <c r="S87" s="52">
+      <c r="S87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.44899999999996</v>
       </c>
-      <c r="T87" s="52">
+      <c r="T87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.44899999999996</v>
       </c>
-      <c r="U87" s="52">
+      <c r="U87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.53899999999999</v>
       </c>
-      <c r="V87" s="52">
+      <c r="V87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>565.53899999999999</v>
       </c>
-      <c r="W87" s="52">
+      <c r="W87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>566.95600000000002</v>
       </c>
-      <c r="X87" s="52">
+      <c r="X87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>568.21500000000003</v>
       </c>
-      <c r="Y87" s="52">
+      <c r="Y87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>568.21500000000003</v>
       </c>
-      <c r="Z87" s="52">
+      <c r="Z87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>569.98899999999992</v>
       </c>
-      <c r="AA87" s="52">
+      <c r="AA87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.30799999999999</v>
       </c>
-      <c r="AB87" s="52">
+      <c r="AB87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.30799999999999</v>
       </c>
-      <c r="AC87" s="52">
+      <c r="AC87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.44100000000003</v>
       </c>
-      <c r="AD87" s="52">
+      <c r="AD87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.476</v>
       </c>
-      <c r="AE87" s="52">
+      <c r="AE87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.56799999999998</v>
       </c>
-      <c r="AF87" s="52">
+      <c r="AF87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AG87" s="52">
+      <c r="AG87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AH87" s="52">
+      <c r="AH87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
-      <c r="AI87" s="52">
+      <c r="AI87" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B87,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>570.69499999999994</v>
       </c>
@@ -35330,131 +35330,131 @@
       <c r="C88" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>14908.906999999999</v>
       </c>
-      <c r="E88" s="52">
+      <c r="E88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>17741.758000000002</v>
       </c>
-      <c r="F88" s="52">
+      <c r="F88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>20580.715</v>
       </c>
-      <c r="G88" s="52">
+      <c r="G88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>22638.566999999999</v>
       </c>
-      <c r="H88" s="52">
+      <c r="H88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>23769.950999999997</v>
       </c>
-      <c r="I88" s="52">
+      <c r="I88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>24422.661</v>
       </c>
-      <c r="J88" s="52">
+      <c r="J88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>25725.832000000002</v>
       </c>
-      <c r="K88" s="52">
+      <c r="K88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>27033.278999999999</v>
       </c>
-      <c r="L88" s="52">
+      <c r="L88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>28281.987999999998</v>
       </c>
-      <c r="M88" s="52">
+      <c r="M88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>29205.769</v>
       </c>
-      <c r="N88" s="52">
+      <c r="N88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>30168.117999999999</v>
       </c>
-      <c r="O88" s="52">
+      <c r="O88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>31389.24</v>
       </c>
-      <c r="P88" s="52">
+      <c r="P88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>31883.095000000001</v>
       </c>
-      <c r="Q88" s="52">
+      <c r="Q88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>32279.797000000002</v>
       </c>
-      <c r="R88" s="52">
+      <c r="R88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>32968.890999999996</v>
       </c>
-      <c r="S88" s="52">
+      <c r="S88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>33678.925000000003</v>
       </c>
-      <c r="T88" s="52">
+      <c r="T88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>34006.583999999995</v>
       </c>
-      <c r="U88" s="52">
+      <c r="U88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>34825.133999999998</v>
       </c>
-      <c r="V88" s="52">
+      <c r="V88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>35221.156999999999</v>
       </c>
-      <c r="W88" s="52">
+      <c r="W88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36007.449999999997</v>
       </c>
-      <c r="X88" s="52">
+      <c r="X88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36477.673000000003</v>
       </c>
-      <c r="Y88" s="52">
+      <c r="Y88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>36843.764999999999</v>
       </c>
-      <c r="Z88" s="52">
+      <c r="Z88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>37346.618999999999</v>
       </c>
-      <c r="AA88" s="52">
+      <c r="AA88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>37853.18</v>
       </c>
-      <c r="AB88" s="52">
+      <c r="AB88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>38311.203000000001</v>
       </c>
-      <c r="AC88" s="52">
+      <c r="AC88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>38971.263999999996</v>
       </c>
-      <c r="AD88" s="52">
+      <c r="AD88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>39456.504999999997</v>
       </c>
-      <c r="AE88" s="52">
+      <c r="AE88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>40213.673000000003</v>
       </c>
-      <c r="AF88" s="52">
+      <c r="AF88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>40861.724999999999</v>
       </c>
-      <c r="AG88" s="52">
+      <c r="AG88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>41413.314999999995</v>
       </c>
-      <c r="AH88" s="52">
+      <c r="AH88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>41787.891000000003</v>
       </c>
-      <c r="AI88" s="52">
+      <c r="AI88" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B88,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>42371.319000000003</v>
       </c>
@@ -35769,131 +35769,131 @@
       <c r="C92" t="s">
         <v>229</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="E92" s="52">
+      <c r="E92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="F92" s="52">
+      <c r="F92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="G92" s="52">
+      <c r="G92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="H92" s="52">
+      <c r="H92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="I92" s="52">
+      <c r="I92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="K92" s="52">
+      <c r="K92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="L92" s="52">
+      <c r="L92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="M92" s="52">
+      <c r="M92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="N92" s="52">
+      <c r="N92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="O92" s="52">
+      <c r="O92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="P92" s="52">
+      <c r="P92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Q92" s="52">
+      <c r="Q92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="R92" s="52">
+      <c r="R92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="S92" s="52">
+      <c r="S92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="T92" s="52">
+      <c r="T92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="U92" s="52">
+      <c r="U92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="V92" s="52">
+      <c r="V92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="W92" s="52">
+      <c r="W92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="X92" s="52">
+      <c r="X92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Y92" s="52">
+      <c r="Y92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="Z92" s="52">
+      <c r="Z92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AA92" s="52">
+      <c r="AA92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AB92" s="52">
+      <c r="AB92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AC92" s="52">
+      <c r="AC92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AD92" s="52">
+      <c r="AD92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AE92" s="52">
+      <c r="AE92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AF92" s="52">
+      <c r="AF92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AG92" s="52">
+      <c r="AG92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AH92" s="52">
+      <c r="AH92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
-      <c r="AI92" s="52">
+      <c r="AI92" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B92,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$82,'AEO Table 22'!$C$13:$AI$13,0))*gigwatt_to_megawatt</f>
         <v>21.495000000000001</v>
       </c>
@@ -36539,7 +36539,7 @@
       <c r="AI99" s="33"/>
     </row>
     <row r="100" spans="2:35" x14ac:dyDescent="0.45">
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="60" t="s">
         <v>475</v>
       </c>
     </row>
@@ -36757,131 +36757,131 @@
       <c r="C104" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10090967</v>
       </c>
-      <c r="E104" s="52">
+      <c r="E104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10354434</v>
       </c>
-      <c r="F104" s="52">
+      <c r="F104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10574880</v>
       </c>
-      <c r="G104" s="52">
+      <c r="G104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10765036</v>
       </c>
-      <c r="H104" s="52">
+      <c r="H104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>10922941</v>
       </c>
-      <c r="I104" s="52">
+      <c r="I104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11073236</v>
       </c>
-      <c r="J104" s="52">
+      <c r="J104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11224220</v>
       </c>
-      <c r="K104" s="52">
+      <c r="K104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11377805</v>
       </c>
-      <c r="L104" s="52">
+      <c r="L104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11503692</v>
       </c>
-      <c r="M104" s="52">
+      <c r="M104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11610416</v>
       </c>
-      <c r="N104" s="52">
+      <c r="N104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11717788</v>
       </c>
-      <c r="O104" s="52">
+      <c r="O104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11834324</v>
       </c>
-      <c r="P104" s="52">
+      <c r="P104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>11948298</v>
       </c>
-      <c r="Q104" s="52">
+      <c r="Q104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12055812</v>
       </c>
-      <c r="R104" s="52">
+      <c r="R104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12185250</v>
       </c>
-      <c r="S104" s="52">
+      <c r="S104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12294869</v>
       </c>
-      <c r="T104" s="52">
+      <c r="T104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12396165</v>
       </c>
-      <c r="U104" s="52">
+      <c r="U104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12500697</v>
       </c>
-      <c r="V104" s="52">
+      <c r="V104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12597983</v>
       </c>
-      <c r="W104" s="52">
+      <c r="W104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12722192</v>
       </c>
-      <c r="X104" s="52">
+      <c r="X104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12824580</v>
       </c>
-      <c r="Y104" s="52">
+      <c r="Y104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>12921640</v>
       </c>
-      <c r="Z104" s="52">
+      <c r="Z104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13036425</v>
       </c>
-      <c r="AA104" s="52">
+      <c r="AA104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13168379</v>
       </c>
-      <c r="AB104" s="52">
+      <c r="AB104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13268743</v>
       </c>
-      <c r="AC104" s="52">
+      <c r="AC104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13392224</v>
       </c>
-      <c r="AD104" s="52">
+      <c r="AD104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13494390</v>
       </c>
-      <c r="AE104" s="52">
+      <c r="AE104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13596555</v>
       </c>
-      <c r="AF104" s="52">
+      <c r="AF104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13708164</v>
       </c>
-      <c r="AG104" s="52">
+      <c r="AG104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13811955</v>
       </c>
-      <c r="AH104" s="52">
+      <c r="AH104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>13915467</v>
       </c>
-      <c r="AI104" s="52">
+      <c r="AI104" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B104,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>14019253</v>
       </c>
@@ -37095,131 +37095,131 @@
       <c r="C107" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>755308</v>
       </c>
-      <c r="E107" s="52">
+      <c r="E107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>755411</v>
       </c>
-      <c r="F107" s="52">
+      <c r="F107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756583</v>
       </c>
-      <c r="G107" s="52">
+      <c r="G107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756810</v>
       </c>
-      <c r="H107" s="52">
+      <c r="H107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>756943</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>757979</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>759913</v>
       </c>
-      <c r="K107" s="52">
+      <c r="K107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>764157</v>
       </c>
-      <c r="L107" s="52">
+      <c r="L107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768105</v>
       </c>
-      <c r="M107" s="52">
+      <c r="M107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768150</v>
       </c>
-      <c r="N107" s="52">
+      <c r="N107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>768196</v>
       </c>
-      <c r="O107" s="52">
+      <c r="O107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>769939</v>
       </c>
-      <c r="P107" s="52">
+      <c r="P107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>770028</v>
       </c>
-      <c r="Q107" s="52">
+      <c r="Q107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>770326</v>
       </c>
-      <c r="R107" s="52">
+      <c r="R107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>771841</v>
       </c>
-      <c r="S107" s="52">
+      <c r="S107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772625</v>
       </c>
-      <c r="T107" s="52">
+      <c r="T107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772625</v>
       </c>
-      <c r="U107" s="52">
+      <c r="U107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772776</v>
       </c>
-      <c r="V107" s="52">
+      <c r="V107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>772776</v>
       </c>
-      <c r="W107" s="52">
+      <c r="W107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>775156</v>
       </c>
-      <c r="X107" s="52">
+      <c r="X107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>777270</v>
       </c>
-      <c r="Y107" s="52">
+      <c r="Y107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>777270</v>
       </c>
-      <c r="Z107" s="52">
+      <c r="Z107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780248</v>
       </c>
-      <c r="AA107" s="52">
+      <c r="AA107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780775</v>
       </c>
-      <c r="AB107" s="52">
+      <c r="AB107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780775</v>
       </c>
-      <c r="AC107" s="52">
+      <c r="AC107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>780999</v>
       </c>
-      <c r="AD107" s="52">
+      <c r="AD107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781058</v>
       </c>
-      <c r="AE107" s="52">
+      <c r="AE107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781196</v>
       </c>
-      <c r="AF107" s="52">
+      <c r="AF107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AG107" s="52">
+      <c r="AG107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AH107" s="52">
+      <c r="AH107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
-      <c r="AI107" s="52">
+      <c r="AI107" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B107,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>781393</v>
       </c>
@@ -37231,131 +37231,131 @@
       <c r="C108" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>18837549</v>
       </c>
-      <c r="E108" s="52">
+      <c r="E108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>22416910</v>
       </c>
-      <c r="F108" s="52">
+      <c r="F108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>26004009</v>
       </c>
-      <c r="G108" s="52">
+      <c r="G108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>28604086</v>
       </c>
-      <c r="H108" s="52">
+      <c r="H108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>30033560</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>30867208</v>
       </c>
-      <c r="J108" s="52">
+      <c r="J108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>32540672</v>
       </c>
-      <c r="K108" s="52">
+      <c r="K108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>34201900</v>
       </c>
-      <c r="L108" s="52">
+      <c r="L108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>35773468</v>
       </c>
-      <c r="M108" s="52">
+      <c r="M108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>36975719</v>
       </c>
-      <c r="N108" s="52">
+      <c r="N108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>38260967</v>
       </c>
-      <c r="O108" s="52">
+      <c r="O108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>39836559</v>
       </c>
-      <c r="P108" s="52">
+      <c r="P108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>40503922</v>
       </c>
-      <c r="Q108" s="52">
+      <c r="Q108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>41027443</v>
       </c>
-      <c r="R108" s="52">
+      <c r="R108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>41899254</v>
       </c>
-      <c r="S108" s="52">
+      <c r="S108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>42818336</v>
       </c>
-      <c r="T108" s="52">
+      <c r="T108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>43256069</v>
       </c>
-      <c r="U108" s="52">
+      <c r="U108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>44295830</v>
       </c>
-      <c r="V108" s="52">
+      <c r="V108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>44822124</v>
       </c>
-      <c r="W108" s="52">
+      <c r="W108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>45788025</v>
       </c>
-      <c r="X108" s="52">
+      <c r="X108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>46380821</v>
       </c>
-      <c r="Y108" s="52">
+      <c r="Y108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>46859875</v>
       </c>
-      <c r="Z108" s="52">
+      <c r="Z108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>47491077</v>
       </c>
-      <c r="AA108" s="52">
+      <c r="AA108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>48106064</v>
       </c>
-      <c r="AB108" s="52">
+      <c r="AB108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>48723824</v>
       </c>
-      <c r="AC108" s="52">
+      <c r="AC108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>49537178</v>
       </c>
-      <c r="AD108" s="52">
+      <c r="AD108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>50152237</v>
       </c>
-      <c r="AE108" s="52">
+      <c r="AE108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>51137211</v>
       </c>
-      <c r="AF108" s="52">
+      <c r="AF108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>51955509</v>
       </c>
-      <c r="AG108" s="52">
+      <c r="AG108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>52667110</v>
       </c>
-      <c r="AH108" s="52">
+      <c r="AH108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>53170837</v>
       </c>
-      <c r="AI108" s="52">
+      <c r="AI108" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B108,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>53918415</v>
       </c>
@@ -37670,131 +37670,131 @@
       <c r="C112" t="s">
         <v>229</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!D$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="E112" s="52">
+      <c r="E112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!E$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="F112" s="52">
+      <c r="F112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!F$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!G$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="H112" s="52">
+      <c r="H112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!H$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="I112" s="52">
+      <c r="I112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!I$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="J112" s="52">
+      <c r="J112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!J$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="K112" s="52">
+      <c r="K112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!K$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="L112" s="52">
+      <c r="L112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!L$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="M112" s="52">
+      <c r="M112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!M$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="N112" s="52">
+      <c r="N112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!N$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="O112" s="52">
+      <c r="O112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!O$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="P112" s="52">
+      <c r="P112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!P$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Q112" s="52">
+      <c r="Q112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Q$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="R112" s="52">
+      <c r="R112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!R$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="S112" s="52">
+      <c r="S112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!S$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="T112" s="52">
+      <c r="T112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!T$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="U112" s="52">
+      <c r="U112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!U$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="V112" s="52">
+      <c r="V112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!V$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="W112" s="52">
+      <c r="W112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!W$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="X112" s="52">
+      <c r="X112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!X$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Y112" s="52">
+      <c r="Y112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Y$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="Z112" s="52">
+      <c r="Z112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!Z$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AA112" s="52">
+      <c r="AA112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AA$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AB112" s="52">
+      <c r="AB112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AB$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AC112" s="52">
+      <c r="AC112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AC$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AD112" s="52">
+      <c r="AD112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AD$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AE112" s="52">
+      <c r="AE112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AE$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AF112" s="52">
+      <c r="AF112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AF$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AG112" s="52">
+      <c r="AG112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AG$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AH112" s="52">
+      <c r="AH112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AH$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>
-      <c r="AI112" s="52">
+      <c r="AI112" s="59">
         <f>INDEX('AEO Table 22'!$C$78:$AH$90,MATCH(Calculations!$B112,'AEO Table 22'!$A$78:$A$90,0),MATCH(Calculations!AI$102,'AEO Table 22'!$C$13:$AI$13,0))*billion_kw_to_MW</f>
         <v>149925</v>
       </c>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC140EA-BD28-47AA-9020-848F7A9FCC62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91592BB-B4D9-4B36-B1D7-6E2ACBA7898C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="585" windowWidth="27000" windowHeight="14670" firstSheet="9" activeTab="10" xr2:uid="{EAFC2935-000E-413A-B5D2-814429F7674A}"/>
+    <workbookView xWindow="5850" yWindow="345" windowWidth="21870" windowHeight="14505" firstSheet="4" activeTab="4" xr2:uid="{EAFC2935-000E-413A-B5D2-814429F7674A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2924,6 +2924,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2942,7 +2943,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -7580,7 +7580,7 @@
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -33423,7 +33423,7 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35669,14 +35669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B961F-E56E-4DFD-B45A-CF05FF85A12C}">
   <dimension ref="A1:AK93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="44" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
@@ -35702,7 +35702,7 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="44" t="s">
         <v>235</v>
       </c>
       <c r="C5" t="s">
@@ -35831,7 +35831,7 @@
       <c r="A8" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="44" t="s">
         <v>240</v>
       </c>
       <c r="C8" t="s">
@@ -35941,7 +35941,7 @@
       <c r="A9" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="44" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
@@ -36051,7 +36051,7 @@
       <c r="A10" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C10" t="s">
@@ -36161,7 +36161,7 @@
       <c r="A11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="44" t="s">
         <v>247</v>
       </c>
       <c r="C11" t="s">
@@ -36271,7 +36271,7 @@
       <c r="A12" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="44" t="s">
         <v>249</v>
       </c>
       <c r="C12" t="s">
@@ -36381,7 +36381,7 @@
       <c r="A13" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="44" t="s">
         <v>250</v>
       </c>
       <c r="C13" t="s">
@@ -36491,7 +36491,7 @@
       <c r="A14" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="44" t="s">
         <v>252</v>
       </c>
       <c r="C14" t="s">
@@ -36601,7 +36601,7 @@
       <c r="A15" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="44" t="s">
         <v>254</v>
       </c>
       <c r="C15" t="s">
@@ -36711,7 +36711,7 @@
       <c r="A16" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="44" t="s">
         <v>256</v>
       </c>
       <c r="C16" t="s">
@@ -36821,7 +36821,7 @@
       <c r="A17" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="44" t="s">
         <v>258</v>
       </c>
       <c r="C17" t="s">
@@ -36939,7 +36939,7 @@
       <c r="A19" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>260</v>
       </c>
       <c r="C19" t="s">
@@ -37049,7 +37049,7 @@
       <c r="A20" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>261</v>
       </c>
       <c r="C20" t="s">
@@ -37159,7 +37159,7 @@
       <c r="A21" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>262</v>
       </c>
       <c r="C21" t="s">
@@ -37269,7 +37269,7 @@
       <c r="A22" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="44" t="s">
         <v>264</v>
       </c>
       <c r="C22" t="s">
@@ -37379,7 +37379,7 @@
       <c r="A23" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="44" t="s">
         <v>266</v>
       </c>
       <c r="C23" t="s">
@@ -37489,7 +37489,7 @@
       <c r="A24" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="44" t="s">
         <v>267</v>
       </c>
       <c r="C24" t="s">
@@ -37607,7 +37607,7 @@
       <c r="A26" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="44" t="s">
         <v>270</v>
       </c>
       <c r="C26" t="s">
@@ -37717,7 +37717,7 @@
       <c r="A27" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="44" t="s">
         <v>272</v>
       </c>
       <c r="C27" t="s">
@@ -37827,7 +37827,7 @@
       <c r="A28" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="44" t="s">
         <v>273</v>
       </c>
       <c r="C28" t="s">
@@ -37937,7 +37937,7 @@
       <c r="A29" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="44" t="s">
         <v>274</v>
       </c>
       <c r="C29" t="s">
@@ -38047,7 +38047,7 @@
       <c r="A30" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="44" t="s">
         <v>276</v>
       </c>
       <c r="C30" t="s">
@@ -38157,7 +38157,7 @@
       <c r="A31" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="44" t="s">
         <v>277</v>
       </c>
       <c r="C31" t="s">
@@ -38275,7 +38275,7 @@
       <c r="A33" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="44" t="s">
         <v>279</v>
       </c>
       <c r="C33" t="s">
@@ -38385,7 +38385,7 @@
       <c r="A34" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="44" t="s">
         <v>280</v>
       </c>
       <c r="C34" t="s">
@@ -38495,7 +38495,7 @@
       <c r="A35" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="44" t="s">
         <v>281</v>
       </c>
       <c r="C35" t="s">
@@ -38605,7 +38605,7 @@
       <c r="A36" t="s">
         <v>257</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="44" t="s">
         <v>282</v>
       </c>
       <c r="C36" t="s">
@@ -38723,7 +38723,7 @@
       <c r="A38" t="s">
         <v>269</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="44" t="s">
         <v>284</v>
       </c>
       <c r="C38" t="s">
@@ -38833,7 +38833,7 @@
       <c r="A39" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="44" t="s">
         <v>285</v>
       </c>
       <c r="C39" t="s">
@@ -38943,7 +38943,7 @@
       <c r="A40" t="s">
         <v>257</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="44" t="s">
         <v>286</v>
       </c>
       <c r="C40" t="s">
@@ -39061,7 +39061,7 @@
       <c r="A42" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="44" t="s">
         <v>289</v>
       </c>
       <c r="C42" t="s">
@@ -39171,7 +39171,7 @@
       <c r="A43" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="44" t="s">
         <v>291</v>
       </c>
       <c r="C43" t="s">
@@ -39297,7 +39297,7 @@
       <c r="A46" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="44" t="s">
         <v>293</v>
       </c>
       <c r="C46" t="s">
@@ -39407,7 +39407,7 @@
       <c r="A47" t="s">
         <v>295</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="44" t="s">
         <v>296</v>
       </c>
       <c r="C47" t="s">
@@ -39517,7 +39517,7 @@
       <c r="A48" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="44" t="s">
         <v>299</v>
       </c>
       <c r="C48" t="s">
@@ -39627,7 +39627,7 @@
       <c r="A49" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="44" t="s">
         <v>302</v>
       </c>
       <c r="C49" t="s">
@@ -39737,7 +39737,7 @@
       <c r="A50" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="44" t="s">
         <v>305</v>
       </c>
       <c r="C50" t="s">
@@ -39855,7 +39855,7 @@
       <c r="A52" t="s">
         <v>307</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="44" t="s">
         <v>308</v>
       </c>
       <c r="C52" t="s">
@@ -39965,7 +39965,7 @@
       <c r="A53" t="s">
         <v>295</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="44" t="s">
         <v>310</v>
       </c>
       <c r="C53" t="s">
@@ -40075,7 +40075,7 @@
       <c r="A54" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="44" t="s">
         <v>312</v>
       </c>
       <c r="C54" t="s">
@@ -40185,7 +40185,7 @@
       <c r="A55" t="s">
         <v>314</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="44" t="s">
         <v>315</v>
       </c>
       <c r="C55" t="s">
@@ -40295,7 +40295,7 @@
       <c r="A56" t="s">
         <v>316</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="44" t="s">
         <v>317</v>
       </c>
       <c r="C56" t="s">
@@ -40413,7 +40413,7 @@
       <c r="A58" t="s">
         <v>319</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="44" t="s">
         <v>320</v>
       </c>
       <c r="C58" t="s">
@@ -40523,7 +40523,7 @@
       <c r="A59" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="44" t="s">
         <v>323</v>
       </c>
       <c r="C59" t="s">
@@ -40633,7 +40633,7 @@
       <c r="A60" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="44" t="s">
         <v>325</v>
       </c>
       <c r="C60" t="s">
@@ -40743,7 +40743,7 @@
       <c r="A61" t="s">
         <v>326</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="44" t="s">
         <v>327</v>
       </c>
       <c r="C61" t="s">
@@ -40861,7 +40861,7 @@
       <c r="A63" t="s">
         <v>288</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="44" t="s">
         <v>329</v>
       </c>
       <c r="C63" t="s">
@@ -40971,7 +40971,7 @@
       <c r="A64" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="44" t="s">
         <v>331</v>
       </c>
       <c r="C64" t="s">
@@ -41097,7 +41097,7 @@
       <c r="A67" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="44" t="s">
         <v>335</v>
       </c>
       <c r="C67" t="s">
@@ -41207,7 +41207,7 @@
       <c r="A68" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="44" t="s">
         <v>338</v>
       </c>
       <c r="C68" t="s">
@@ -41317,7 +41317,7 @@
       <c r="A69" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="44" t="s">
         <v>340</v>
       </c>
       <c r="C69" t="s">
@@ -41435,7 +41435,7 @@
       <c r="A71" t="s">
         <v>334</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="44" t="s">
         <v>341</v>
       </c>
       <c r="C71" t="s">
@@ -41545,7 +41545,7 @@
       <c r="A72" t="s">
         <v>337</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="44" t="s">
         <v>342</v>
       </c>
       <c r="C72" t="s">
@@ -41655,7 +41655,7 @@
       <c r="A73" t="s">
         <v>339</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="44" t="s">
         <v>343</v>
       </c>
       <c r="C73" t="s">
@@ -41789,7 +41789,7 @@
       <c r="A77" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="44" t="s">
         <v>347</v>
       </c>
       <c r="C77" t="s">
@@ -41899,7 +41899,7 @@
       <c r="A78" t="s">
         <v>349</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="44" t="s">
         <v>350</v>
       </c>
       <c r="C78" t="s">
@@ -42009,7 +42009,7 @@
       <c r="A79" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="44" t="s">
         <v>352</v>
       </c>
       <c r="C79" t="s">
@@ -42119,7 +42119,7 @@
       <c r="A80" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="44" t="s">
         <v>353</v>
       </c>
       <c r="C80" t="s">
@@ -42237,7 +42237,7 @@
       <c r="A82" t="s">
         <v>346</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="44" t="s">
         <v>354</v>
       </c>
       <c r="C82" t="s">
@@ -42347,7 +42347,7 @@
       <c r="A83" t="s">
         <v>349</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="44" t="s">
         <v>356</v>
       </c>
       <c r="C83" t="s">
@@ -42457,7 +42457,7 @@
       <c r="A84" t="s">
         <v>351</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="44" t="s">
         <v>357</v>
       </c>
       <c r="C84" t="s">
@@ -42567,7 +42567,7 @@
       <c r="A85" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="44" t="s">
         <v>358</v>
       </c>
       <c r="C85" t="s">
@@ -42685,7 +42685,7 @@
       <c r="A87" t="s">
         <v>360</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="44" t="s">
         <v>361</v>
       </c>
       <c r="C87" t="s">
@@ -42795,7 +42795,7 @@
       <c r="A88" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="44" t="s">
         <v>363</v>
       </c>
       <c r="C88" t="s">
@@ -42913,7 +42913,7 @@
       <c r="A90" t="s">
         <v>346</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="44" t="s">
         <v>365</v>
       </c>
       <c r="C90" t="s">
@@ -43023,7 +43023,7 @@
       <c r="A91" t="s">
         <v>349</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="44" t="s">
         <v>367</v>
       </c>
       <c r="C91" t="s">
@@ -43133,7 +43133,7 @@
       <c r="A92" t="s">
         <v>351</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="44" t="s">
         <v>368</v>
       </c>
       <c r="C92" t="s">
@@ -43243,7 +43243,7 @@
       <c r="A93" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="44" t="s">
         <v>369</v>
       </c>
       <c r="C93" t="s">
@@ -43359,11 +43359,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D8A44D-88EA-40FD-9C09-502A5C75600E}">
   <dimension ref="A1:AK81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -49940,37 +49943,37 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -55017,15 +55020,15 @@
       <c r="G224" s="27"/>
     </row>
     <row r="225" spans="1:7" s="20" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="49" t="s">
+      <c r="A225" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B225" s="49"/>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="49"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="50"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226"/>
@@ -55062,8 +55065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA048DE0-AEAD-4096-B0F3-BDB0F419C9A6}">
   <dimension ref="A1:BD118"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57023,7 +57026,7 @@
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="31">
         <v>0</v>
@@ -67909,7 +67912,9 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -68028,7 +68033,7 @@
       </c>
       <c r="C2" s="31">
         <f>Calculations!E24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="31">
         <f>Calculations!F24</f>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91592BB-B4D9-4B36-B1D7-6E2ACBA7898C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7451C0A9-ECDF-4310-B3A9-42D02CF735E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="345" windowWidth="21870" windowHeight="14505" firstSheet="4" activeTab="4" xr2:uid="{EAFC2935-000E-413A-B5D2-814429F7674A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EAFC2935-000E-413A-B5D2-814429F7674A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -887,9 +887,6 @@
   </si>
   <si>
     <t>Capacity is reported in MW</t>
-  </si>
-  <si>
-    <t>Annual Energy Outlook 2020</t>
   </si>
   <si>
     <t>Table 21 and Table 22</t>
@@ -2112,6 +2109,9 @@
   <si>
     <t>Wed Mar 03 2021 12:02:13 GMT-0800 (Pacific Standard Time)</t>
   </si>
+  <si>
+    <t>Annual Energy Outlook 2021</t>
+  </si>
 </sst>
 </file>
 
@@ -2125,7 +2125,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2366,6 +2366,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2761,7 +2769,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -2826,8 +2834,9 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2943,8 +2952,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="52" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="31" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="34" builtinId="38" customBuiltin="1"/>
@@ -2984,6 +2996,7 @@
     <cellStyle name="Heading 2" xfId="13" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="14" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="15" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8"/>
     <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="45" xr:uid="{09445B5B-F6BE-47A3-8B4B-90B358DD6365}"/>
@@ -30999,7 +31012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -31036,27 +31049,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>218</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
-        <v>534</v>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -31142,7 +31155,7 @@
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29">
         <f>10^6</f>
@@ -31154,7 +31167,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -31162,8 +31175,11 @@
       <c r="F30" s="35"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" location="/?id=30-AEO2021&amp;cases=ref2021&amp;sourcekey=0" xr:uid="{48828A93-D394-463B-A5F9-BD429CCCE3F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35683,33 +35699,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -35808,7 +35824,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -35816,29 +35832,29 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" t="s">
         <v>240</v>
-      </c>
-      <c r="C8" t="s">
-        <v>539</v>
-      </c>
-      <c r="D8" t="s">
-        <v>241</v>
       </c>
       <c r="F8">
         <v>12.588214000000001</v>
@@ -35939,16 +35955,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>243</v>
-      </c>
       <c r="C9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9">
         <v>30.217645999999998</v>
@@ -36049,16 +36065,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>245</v>
-      </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10">
         <v>1.3117239999999999</v>
@@ -36159,16 +36175,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>247</v>
-      </c>
       <c r="C11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11">
         <v>60.555110999999997</v>
@@ -36269,16 +36285,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>249</v>
-      </c>
       <c r="C12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12">
         <v>5.548133</v>
@@ -36382,13 +36398,13 @@
         <v>192</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13">
         <v>5.1948600000000003</v>
@@ -36489,16 +36505,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>252</v>
-      </c>
       <c r="C14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14">
         <v>2.8969999999999998E-3</v>
@@ -36599,16 +36615,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>254</v>
-      </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15">
         <v>3.344913</v>
@@ -36709,16 +36725,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>256</v>
-      </c>
       <c r="C16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16">
         <v>0.65997300000000003</v>
@@ -36819,16 +36835,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>258</v>
-      </c>
       <c r="C17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17">
         <v>119.42347700000001</v>
@@ -36929,24 +36945,24 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F19">
         <v>12.58821</v>
@@ -37047,16 +37063,16 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F20">
         <v>1.3117239999999999</v>
@@ -37157,16 +37173,16 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21">
         <v>0.65997300000000003</v>
@@ -37267,16 +37283,16 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>264</v>
-      </c>
       <c r="C22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22">
         <v>62.428100999999998</v>
@@ -37377,16 +37393,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>266</v>
-      </c>
       <c r="C23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>57.979027000000002</v>
@@ -37487,16 +37503,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F24">
         <v>134.96704099999999</v>
@@ -37597,24 +37613,24 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>270</v>
-      </c>
       <c r="C26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>59.144027999999999</v>
@@ -37715,16 +37731,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>272</v>
-      </c>
       <c r="C27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27">
         <v>60.065722999999998</v>
@@ -37825,16 +37841,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F28">
         <v>2.6456879999999998</v>
@@ -37938,13 +37954,13 @@
         <v>192</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29">
         <v>4.0547959999999996</v>
@@ -38045,16 +38061,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>276</v>
-      </c>
       <c r="C30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F30">
         <v>1.6193390000000001</v>
@@ -38155,16 +38171,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F31">
         <v>127.529572</v>
@@ -38265,24 +38281,24 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33">
         <v>96.368851000000006</v>
@@ -38383,16 +38399,16 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F34">
         <v>47.877865</v>
@@ -38496,13 +38512,13 @@
         <v>192</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35">
         <v>7.1852200000000002</v>
@@ -38603,16 +38619,16 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F36">
         <v>151.43194600000001</v>
@@ -38713,24 +38729,24 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F38">
         <v>82.851837000000003</v>
@@ -38831,16 +38847,16 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39">
         <v>19.328499000000001</v>
@@ -38941,16 +38957,16 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40">
         <v>102.180336</v>
@@ -39051,24 +39067,24 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="44" t="s">
-        <v>289</v>
-      </c>
       <c r="C42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F42">
         <v>168.42892499999999</v>
@@ -39169,16 +39185,16 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>291</v>
-      </c>
       <c r="C43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F43">
         <v>44.426056000000003</v>
@@ -39282,29 +39298,29 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="C46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D46" t="s">
         <v>293</v>
-      </c>
-      <c r="C46" t="s">
-        <v>577</v>
-      </c>
-      <c r="D46" t="s">
-        <v>294</v>
       </c>
       <c r="F46">
         <v>8.1115349999999999</v>
@@ -39405,16 +39421,16 @@
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
         <v>296</v>
-      </c>
-      <c r="C47" t="s">
-        <v>578</v>
-      </c>
-      <c r="D47" t="s">
-        <v>297</v>
       </c>
       <c r="F47">
         <v>1.3</v>
@@ -39515,16 +39531,16 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="C48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" t="s">
         <v>299</v>
-      </c>
-      <c r="C48" t="s">
-        <v>579</v>
-      </c>
-      <c r="D48" t="s">
-        <v>300</v>
       </c>
       <c r="F48">
         <v>3.4048020000000001</v>
@@ -39625,16 +39641,16 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="C49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" t="s">
         <v>302</v>
-      </c>
-      <c r="C49" t="s">
-        <v>580</v>
-      </c>
-      <c r="D49" t="s">
-        <v>303</v>
       </c>
       <c r="F49">
         <v>0.82003599999999999</v>
@@ -39735,16 +39751,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="44" t="s">
-        <v>305</v>
-      </c>
       <c r="C50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F50">
         <v>0.83380600000000005</v>
@@ -39845,24 +39861,24 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="C52" t="s">
+        <v>582</v>
+      </c>
+      <c r="D52" t="s">
         <v>308</v>
-      </c>
-      <c r="C52" t="s">
-        <v>583</v>
-      </c>
-      <c r="D52" t="s">
-        <v>309</v>
       </c>
       <c r="F52">
         <v>13.797461999999999</v>
@@ -39963,16 +39979,16 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F53">
         <v>0.60571200000000003</v>
@@ -40073,16 +40089,16 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="C54" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" t="s">
         <v>312</v>
-      </c>
-      <c r="C54" t="s">
-        <v>585</v>
-      </c>
-      <c r="D54" t="s">
-        <v>313</v>
       </c>
       <c r="F54">
         <v>15.371568</v>
@@ -40183,16 +40199,16 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>315</v>
-      </c>
       <c r="C55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F55">
         <v>13.228505999999999</v>
@@ -40293,16 +40309,16 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="B56" s="44" t="s">
-        <v>317</v>
-      </c>
       <c r="C56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F56">
         <v>11.152912000000001</v>
@@ -40403,24 +40419,24 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="C58" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" t="s">
         <v>320</v>
-      </c>
-      <c r="C58" t="s">
-        <v>589</v>
-      </c>
-      <c r="D58" t="s">
-        <v>321</v>
       </c>
       <c r="F58">
         <v>0.90693800000000002</v>
@@ -40521,16 +40537,16 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>321</v>
+      </c>
+      <c r="B59" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="44" t="s">
-        <v>323</v>
-      </c>
       <c r="C59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F59">
         <v>0.60857099999999997</v>
@@ -40631,16 +40647,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="44" t="s">
-        <v>325</v>
-      </c>
       <c r="C60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F60">
         <v>0.582561</v>
@@ -40741,16 +40757,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B61" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="B61" s="44" t="s">
-        <v>327</v>
-      </c>
       <c r="C61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F61">
         <v>0.59947300000000003</v>
@@ -40851,24 +40867,24 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B63" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" t="s">
+        <v>593</v>
+      </c>
+      <c r="D63" t="s">
         <v>329</v>
-      </c>
-      <c r="C63" t="s">
-        <v>594</v>
-      </c>
-      <c r="D63" t="s">
-        <v>330</v>
       </c>
       <c r="F63">
         <v>621.62353499999995</v>
@@ -40969,16 +40985,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F64">
         <v>458.33587599999998</v>
@@ -41079,32 +41095,32 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="C67" t="s">
+        <v>597</v>
+      </c>
+      <c r="D67" t="s">
         <v>335</v>
-      </c>
-      <c r="C67" t="s">
-        <v>598</v>
-      </c>
-      <c r="D67" t="s">
-        <v>336</v>
       </c>
       <c r="F67">
         <v>0.96857099999999996</v>
@@ -41205,16 +41221,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="44" t="s">
-        <v>338</v>
-      </c>
       <c r="C68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F68">
         <v>0.87612599999999996</v>
@@ -41315,16 +41331,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="44" t="s">
-        <v>340</v>
-      </c>
       <c r="C69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F69">
         <v>0.96265100000000003</v>
@@ -41425,24 +41441,24 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F71">
         <v>0.98902999999999996</v>
@@ -41543,16 +41559,16 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F72">
         <v>0.99050899999999997</v>
@@ -41653,16 +41669,16 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D73" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F73">
         <v>0.98917699999999997</v>
@@ -41763,40 +41779,40 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="C77" t="s">
+        <v>607</v>
+      </c>
+      <c r="D77" t="s">
         <v>347</v>
-      </c>
-      <c r="C77" t="s">
-        <v>608</v>
-      </c>
-      <c r="D77" t="s">
-        <v>348</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -41897,16 +41913,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>350</v>
-      </c>
       <c r="C78" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F78">
         <v>18.318204999999999</v>
@@ -42007,16 +42023,16 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="44" t="s">
-        <v>352</v>
-      </c>
       <c r="C79" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F79">
         <v>1.4232E-2</v>
@@ -42117,16 +42133,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F80">
         <v>18.332438</v>
@@ -42227,24 +42243,24 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B82" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" t="s">
+        <v>612</v>
+      </c>
+      <c r="D82" t="s">
         <v>354</v>
-      </c>
-      <c r="C82" t="s">
-        <v>613</v>
-      </c>
-      <c r="D82" t="s">
-        <v>355</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -42345,16 +42361,16 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F83">
         <v>27.109546999999999</v>
@@ -42455,16 +42471,16 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F84">
         <v>1.8546E-2</v>
@@ -42565,16 +42581,16 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C85" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F85">
         <v>27.128091999999999</v>
@@ -42675,24 +42691,24 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>361</v>
-      </c>
       <c r="C87" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F87">
         <v>4.2282419999999998</v>
@@ -42793,16 +42809,16 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>363</v>
-      </c>
       <c r="C88" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F88">
         <v>22.899849</v>
@@ -42903,24 +42919,24 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="C90" t="s">
+        <v>620</v>
+      </c>
+      <c r="D90" t="s">
         <v>365</v>
-      </c>
-      <c r="C90" t="s">
-        <v>621</v>
-      </c>
-      <c r="D90" t="s">
-        <v>366</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -43021,16 +43037,16 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F91">
         <v>225.07347100000001</v>
@@ -43131,16 +43147,16 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F92">
         <v>0.172512</v>
@@ -43241,16 +43257,16 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C93" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F93">
         <v>225.24598700000001</v>
@@ -43370,33 +43386,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>235</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -43495,7 +43511,7 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -43503,29 +43519,29 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" t="s">
         <v>376</v>
-      </c>
-      <c r="C7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>380</v>
-      </c>
-      <c r="D8" t="s">
-        <v>381</v>
       </c>
       <c r="F8">
         <v>0.65425999999999995</v>
@@ -43626,16 +43642,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
         <v>382</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>383</v>
       </c>
-      <c r="C9" t="s">
-        <v>384</v>
-      </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9">
         <v>1.097099</v>
@@ -43736,16 +43752,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
         <v>385</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>386</v>
       </c>
-      <c r="C10" t="s">
-        <v>387</v>
-      </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F10">
         <v>0.33711200000000002</v>
@@ -43846,16 +43862,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" t="s">
         <v>388</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>389</v>
       </c>
-      <c r="C11" t="s">
-        <v>390</v>
-      </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11">
         <v>0.60391499999999998</v>
@@ -43956,16 +43972,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" t="s">
         <v>391</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>392</v>
       </c>
-      <c r="C12" t="s">
-        <v>393</v>
-      </c>
       <c r="D12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12">
         <v>0.56415400000000004</v>
@@ -44066,16 +44082,16 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" t="s">
         <v>394</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>395</v>
       </c>
-      <c r="C13" t="s">
-        <v>396</v>
-      </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F13">
         <v>0.65307199999999999</v>
@@ -44176,16 +44192,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" t="s">
         <v>397</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>398</v>
       </c>
-      <c r="C14" t="s">
-        <v>399</v>
-      </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F14">
         <v>0.91181500000000004</v>
@@ -44286,16 +44302,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>401</v>
       </c>
-      <c r="C15" t="s">
-        <v>402</v>
-      </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F15">
         <v>0.62496600000000002</v>
@@ -44396,16 +44412,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
         <v>403</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>404</v>
       </c>
-      <c r="C16" t="s">
-        <v>405</v>
-      </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F16">
         <v>1.4580070000000001</v>
@@ -44506,16 +44522,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" t="s">
         <v>406</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>407</v>
       </c>
-      <c r="C17" t="s">
-        <v>408</v>
-      </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F17">
         <v>0.42540099999999997</v>
@@ -44616,16 +44632,16 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" t="s">
         <v>409</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>410</v>
       </c>
-      <c r="C18" t="s">
-        <v>411</v>
-      </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F18">
         <v>0.47082200000000002</v>
@@ -44726,16 +44742,16 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" t="s">
         <v>412</v>
       </c>
-      <c r="C19" t="s">
-        <v>413</v>
-      </c>
       <c r="D19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F19">
         <v>7.8006229999999999</v>
@@ -44839,29 +44855,29 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" t="s">
         <v>415</v>
-      </c>
-      <c r="C21" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" t="s">
         <v>417</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>418</v>
-      </c>
-      <c r="D22" t="s">
-        <v>419</v>
       </c>
       <c r="F22">
         <v>10.401047</v>
@@ -44962,16 +44978,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
         <v>420</v>
       </c>
-      <c r="C23" t="s">
-        <v>421</v>
-      </c>
       <c r="D23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23">
         <v>13.364542999999999</v>
@@ -45072,16 +45088,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" t="s">
         <v>422</v>
       </c>
-      <c r="C24" t="s">
-        <v>423</v>
-      </c>
       <c r="D24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24">
         <v>1.312878</v>
@@ -45182,16 +45198,16 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" t="s">
         <v>424</v>
       </c>
-      <c r="C25" t="s">
-        <v>425</v>
-      </c>
       <c r="D25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25">
         <v>1.917279</v>
@@ -45292,16 +45308,16 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" t="s">
         <v>426</v>
       </c>
-      <c r="C26" t="s">
-        <v>427</v>
-      </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F26">
         <v>2.6232890000000002</v>
@@ -45402,16 +45418,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" t="s">
         <v>428</v>
       </c>
-      <c r="C27" t="s">
-        <v>429</v>
-      </c>
       <c r="D27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27">
         <v>6.4305729999999999</v>
@@ -45512,16 +45528,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" t="s">
         <v>430</v>
       </c>
-      <c r="C28" t="s">
-        <v>431</v>
-      </c>
       <c r="D28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F28">
         <v>9.5479479999999999</v>
@@ -45622,16 +45638,16 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" t="s">
         <v>432</v>
       </c>
-      <c r="C29" t="s">
-        <v>433</v>
-      </c>
       <c r="D29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F29">
         <v>9.0393329999999992</v>
@@ -45732,16 +45748,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C30" t="s">
         <v>434</v>
       </c>
-      <c r="C30" t="s">
-        <v>435</v>
-      </c>
       <c r="D30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F30">
         <v>17.170576000000001</v>
@@ -45842,16 +45858,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" t="s">
         <v>436</v>
       </c>
-      <c r="C31" t="s">
-        <v>437</v>
-      </c>
       <c r="D31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31">
         <v>14.445923000000001</v>
@@ -45952,16 +45968,16 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C32" t="s">
         <v>438</v>
       </c>
-      <c r="C32" t="s">
-        <v>439</v>
-      </c>
       <c r="D32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F32">
         <v>7.3290100000000002</v>
@@ -46062,16 +46078,16 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" t="s">
         <v>440</v>
       </c>
-      <c r="C33" t="s">
-        <v>441</v>
-      </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F33">
         <v>93.582397</v>
@@ -46175,15 +46191,15 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
@@ -46191,13 +46207,13 @@
         <v>190</v>
       </c>
       <c r="B36" t="s">
+        <v>443</v>
+      </c>
+      <c r="C36" t="s">
         <v>444</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>445</v>
-      </c>
-      <c r="D36" t="s">
-        <v>446</v>
       </c>
       <c r="F36">
         <v>1.620503</v>
@@ -46298,16 +46314,16 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
+        <v>446</v>
+      </c>
+      <c r="C37" t="s">
         <v>447</v>
       </c>
-      <c r="C37" t="s">
-        <v>448</v>
-      </c>
       <c r="D37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F37">
         <v>0.788269</v>
@@ -46408,16 +46424,16 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" t="s">
         <v>449</v>
       </c>
-      <c r="C38" t="s">
-        <v>450</v>
-      </c>
       <c r="D38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F38">
         <v>0.80938200000000005</v>
@@ -46518,10 +46534,10 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
@@ -46529,13 +46545,13 @@
         <v>190</v>
       </c>
       <c r="B40" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" t="s">
         <v>452</v>
       </c>
-      <c r="C40" t="s">
-        <v>453</v>
-      </c>
       <c r="D40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F40">
         <v>3.5652750000000002</v>
@@ -46636,16 +46652,16 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" t="s">
         <v>454</v>
       </c>
-      <c r="C41" t="s">
-        <v>455</v>
-      </c>
       <c r="D41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F41">
         <v>0.76141800000000004</v>
@@ -46746,10 +46762,10 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" t="s">
         <v>456</v>
-      </c>
-      <c r="C42" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
@@ -46757,13 +46773,13 @@
         <v>190</v>
       </c>
       <c r="B43" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" t="s">
         <v>458</v>
       </c>
-      <c r="C43" t="s">
-        <v>459</v>
-      </c>
       <c r="D43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F43">
         <v>1.128255</v>
@@ -46864,16 +46880,16 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C44" t="s">
         <v>460</v>
       </c>
-      <c r="C44" t="s">
-        <v>461</v>
-      </c>
       <c r="D44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F44">
         <v>0.88786500000000002</v>
@@ -46974,16 +46990,16 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" t="s">
         <v>462</v>
       </c>
-      <c r="C45" t="s">
-        <v>463</v>
-      </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F45">
         <v>0.80547100000000005</v>
@@ -47084,10 +47100,10 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" t="s">
         <v>464</v>
-      </c>
-      <c r="C46" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
@@ -47095,13 +47111,13 @@
         <v>190</v>
       </c>
       <c r="B47" t="s">
+        <v>465</v>
+      </c>
+      <c r="C47" t="s">
         <v>466</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>467</v>
-      </c>
-      <c r="D47" t="s">
-        <v>468</v>
       </c>
       <c r="F47">
         <v>0.55371400000000004</v>
@@ -47202,10 +47218,10 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" t="s">
         <v>469</v>
-      </c>
-      <c r="C48" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
@@ -47213,13 +47229,13 @@
         <v>190</v>
       </c>
       <c r="B49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C49" t="s">
         <v>471</v>
       </c>
-      <c r="C49" t="s">
-        <v>472</v>
-      </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F49">
         <v>0.69221600000000005</v>
@@ -47320,16 +47336,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" t="s">
         <v>473</v>
       </c>
-      <c r="C50" t="s">
-        <v>474</v>
-      </c>
       <c r="D50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F50">
         <v>0.31666699999999998</v>
@@ -47430,18 +47446,18 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>474</v>
+      </c>
+      <c r="C51" t="s">
         <v>475</v>
-      </c>
-      <c r="C51" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" t="s">
         <v>477</v>
-      </c>
-      <c r="C52" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
@@ -47449,13 +47465,13 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" t="s">
         <v>479</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>480</v>
-      </c>
-      <c r="D53" t="s">
-        <v>481</v>
       </c>
       <c r="F53">
         <v>70.972008000000002</v>
@@ -47556,10 +47572,10 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
         <v>482</v>
-      </c>
-      <c r="C54" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
@@ -47567,13 +47583,13 @@
         <v>190</v>
       </c>
       <c r="B55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
         <v>484</v>
       </c>
-      <c r="C55" t="s">
-        <v>485</v>
-      </c>
       <c r="D55" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F55">
         <v>2.6778140000000001</v>
@@ -47674,40 +47690,40 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>488</v>
+      </c>
+      <c r="B59" t="s">
         <v>489</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>490</v>
       </c>
-      <c r="C59" t="s">
-        <v>491</v>
-      </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F59">
         <v>1.7117E-2</v>
@@ -47808,16 +47824,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" t="s">
         <v>492</v>
       </c>
-      <c r="C60" t="s">
-        <v>493</v>
-      </c>
       <c r="D60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F60">
         <v>1.3771519999999999</v>
@@ -47918,16 +47934,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
+        <v>493</v>
+      </c>
+      <c r="C61" t="s">
         <v>494</v>
       </c>
-      <c r="C61" t="s">
-        <v>495</v>
-      </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F61">
         <v>15.855377000000001</v>
@@ -48028,16 +48044,16 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" t="s">
         <v>496</v>
       </c>
-      <c r="C62" t="s">
-        <v>497</v>
-      </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F62">
         <v>0.55488099999999996</v>
@@ -48138,16 +48154,16 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s">
+        <v>497</v>
+      </c>
+      <c r="C63" t="s">
         <v>498</v>
       </c>
-      <c r="C63" t="s">
-        <v>499</v>
-      </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F63">
         <v>0.52205299999999999</v>
@@ -48248,16 +48264,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
+        <v>499</v>
+      </c>
+      <c r="C64" t="s">
         <v>500</v>
       </c>
-      <c r="C64" t="s">
-        <v>501</v>
-      </c>
       <c r="D64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F64">
         <v>18.32658</v>
@@ -48358,24 +48374,24 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" t="s">
         <v>503</v>
       </c>
-      <c r="C66" t="s">
-        <v>504</v>
-      </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F66">
         <v>0.11938799999999999</v>
@@ -48476,16 +48492,16 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" t="s">
         <v>505</v>
       </c>
-      <c r="C67" t="s">
-        <v>506</v>
-      </c>
       <c r="D67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F67">
         <v>9.6056340000000002</v>
@@ -48586,16 +48602,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s">
+        <v>506</v>
+      </c>
+      <c r="C68" t="s">
         <v>507</v>
       </c>
-      <c r="C68" t="s">
-        <v>508</v>
-      </c>
       <c r="D68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F68">
         <v>20.024660000000001</v>
@@ -48696,16 +48712,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" t="s">
         <v>509</v>
       </c>
-      <c r="C69" t="s">
-        <v>510</v>
-      </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F69">
         <v>0.75530799999999998</v>
@@ -48806,16 +48822,16 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B70" t="s">
+        <v>510</v>
+      </c>
+      <c r="C70" t="s">
         <v>511</v>
       </c>
-      <c r="C70" t="s">
-        <v>512</v>
-      </c>
       <c r="D70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F70">
         <v>3.7357119999999999</v>
@@ -48916,16 +48932,16 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
+        <v>512</v>
+      </c>
+      <c r="C71" t="s">
         <v>513</v>
       </c>
-      <c r="C71" t="s">
-        <v>514</v>
-      </c>
       <c r="D71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F71">
         <v>34.240704000000001</v>
@@ -49026,24 +49042,24 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s">
+        <v>515</v>
+      </c>
+      <c r="C73" t="s">
         <v>516</v>
       </c>
-      <c r="C73" t="s">
-        <v>517</v>
-      </c>
       <c r="D73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F73">
         <v>8.2284749999999995</v>
@@ -49144,16 +49160,16 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" t="s">
         <v>518</v>
       </c>
-      <c r="C74" t="s">
-        <v>519</v>
-      </c>
       <c r="D74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F74">
         <v>26.012225999999998</v>
@@ -49254,24 +49270,24 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C76" t="s">
         <v>521</v>
       </c>
-      <c r="C76" t="s">
-        <v>522</v>
-      </c>
       <c r="D76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F76">
         <v>1.23607</v>
@@ -49372,16 +49388,16 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s">
+        <v>522</v>
+      </c>
+      <c r="C77" t="s">
         <v>523</v>
       </c>
-      <c r="C77" t="s">
-        <v>524</v>
-      </c>
       <c r="D77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F77">
         <v>105.194168</v>
@@ -49482,16 +49498,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s">
+        <v>524</v>
+      </c>
+      <c r="C78" t="s">
         <v>525</v>
       </c>
-      <c r="C78" t="s">
-        <v>526</v>
-      </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F78">
         <v>165.691711</v>
@@ -49592,16 +49608,16 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" t="s">
         <v>527</v>
       </c>
-      <c r="C79" t="s">
-        <v>528</v>
-      </c>
       <c r="D79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F79">
         <v>6.897945</v>
@@ -49702,16 +49718,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s">
+        <v>528</v>
+      </c>
+      <c r="C80" t="s">
         <v>529</v>
       </c>
-      <c r="C80" t="s">
-        <v>530</v>
-      </c>
       <c r="D80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F80">
         <v>85.124961999999996</v>
@@ -49812,16 +49828,16 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
+        <v>530</v>
+      </c>
+      <c r="C81" t="s">
         <v>531</v>
       </c>
-      <c r="C81" t="s">
-        <v>532</v>
-      </c>
       <c r="D81" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F81">
         <v>364.14486699999998</v>
@@ -55065,7 +55081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA048DE0-AEAD-4096-B0F3-BDB0F419C9A6}">
   <dimension ref="A1:BD118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -55101,26 +55117,26 @@
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>215</v>
@@ -55323,7 +55339,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -55657,7 +55673,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -55793,7 +55809,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -56919,7 +56935,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -57121,7 +57137,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -57455,7 +57471,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -57591,7 +57607,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
@@ -58717,12 +58733,12 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
@@ -58924,7 +58940,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
@@ -59258,7 +59274,7 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>7</v>
@@ -59394,7 +59410,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -60520,7 +60536,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
@@ -60722,7 +60738,7 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>4</v>
@@ -61056,7 +61072,7 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>7</v>
@@ -61192,7 +61208,7 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>6</v>
@@ -62352,21 +62368,21 @@
     </row>
     <row r="79" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="36"/>
       <c r="B80" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:56" x14ac:dyDescent="0.25">
@@ -62566,7 +62582,7 @@
     </row>
     <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -62867,7 +62883,7 @@
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>16</v>
@@ -63034,7 +63050,7 @@
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>15</v>
@@ -63402,7 +63418,7 @@
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>13</v>
@@ -64042,15 +64058,15 @@
     </row>
     <row r="100" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B100" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F101" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:56" x14ac:dyDescent="0.25">
@@ -64250,7 +64266,7 @@
     </row>
     <row r="104" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>18</v>
@@ -64535,7 +64551,7 @@
     </row>
     <row r="107" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>20</v>
@@ -64702,7 +64718,7 @@
     </row>
     <row r="108" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>19</v>
@@ -65046,7 +65062,7 @@
     </row>
     <row r="112" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>17</v>
